--- a/Code/Results/Cases/Case_2_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9865465594987978</v>
+        <v>0.9865465594987971</v>
       </c>
       <c r="D2">
-        <v>1.007991599406322</v>
+        <v>1.007991599406321</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9961699152263518</v>
+        <v>0.9961699152263509</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04040342075323</v>
+        <v>1.040403420753229</v>
       </c>
       <c r="J2">
-        <v>1.00913724405006</v>
+        <v>1.009137244050059</v>
       </c>
       <c r="K2">
-        <v>1.019340710085114</v>
+        <v>1.019340710085113</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.007682868377884</v>
+        <v>1.007682868377883</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9947238102075241</v>
+        <v>0.9947238102075245</v>
       </c>
       <c r="D3">
         <v>1.014314232627898</v>
@@ -480,7 +480,7 @@
         <v>1.01535935024894</v>
       </c>
       <c r="K3">
-        <v>1.02476717854314</v>
+        <v>1.024767178543141</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9998287505532236</v>
+        <v>0.9998287505532232</v>
       </c>
       <c r="D4">
         <v>1.018263049375015</v>
@@ -515,7 +515,7 @@
         <v>1.045198426719626</v>
       </c>
       <c r="J4">
-        <v>1.019236837923767</v>
+        <v>1.019236837923766</v>
       </c>
       <c r="K4">
         <v>1.028145941220268</v>
@@ -541,7 +541,7 @@
         <v>1.019891107954732</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
         <v>1.012073453337937</v>
@@ -553,13 +553,13 @@
         <v>1.045949856598442</v>
       </c>
       <c r="J5">
-        <v>1.020833507918726</v>
+        <v>1.020833507918725</v>
       </c>
       <c r="K5">
         <v>1.029536514563311</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
         <v>1.021807312027218</v>
@@ -579,10 +579,10 @@
         <v>1.020162644258224</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.012436743415928</v>
+        <v>1.012436743415929</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.046074937729306</v>
       </c>
       <c r="J6">
-        <v>1.021099694476337</v>
+        <v>1.021099694476338</v>
       </c>
       <c r="K6">
         <v>1.029768297929186</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.022129368698345</v>
+        <v>1.022129368698346</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9998570297042888</v>
+        <v>0.9998570297042889</v>
       </c>
       <c r="D7">
         <v>1.018284926838924</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
         <v>1.00992494968151</v>
@@ -629,13 +629,13 @@
         <v>1.045208540840895</v>
       </c>
       <c r="J7">
-        <v>1.019258301354497</v>
+        <v>1.019258301354498</v>
       </c>
       <c r="K7">
-        <v>1.028164637119787</v>
+        <v>1.028164637119788</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
         <v>1.019902085390448</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9893504803666785</v>
+        <v>0.9893504803666797</v>
       </c>
       <c r="D8">
-        <v>1.010159141168853</v>
+        <v>1.010159141168855</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9990647642553594</v>
+        <v>0.9990647642553604</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041422637695898</v>
+        <v>1.041422637695899</v>
       </c>
       <c r="J8">
-        <v>1.011272178200378</v>
+        <v>1.011272178200379</v>
       </c>
       <c r="K8">
-        <v>1.021203236641096</v>
+        <v>1.021203236641097</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.010257418823987</v>
+        <v>1.010257418823988</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9692644111427392</v>
+        <v>0.969264411142737</v>
       </c>
       <c r="D9">
-        <v>0.994645548058414</v>
+        <v>0.9946455480584122</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9783566149065162</v>
+        <v>0.9783566149065137</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034052132786441</v>
+        <v>1.03405213278644</v>
       </c>
       <c r="J9">
-        <v>0.995951242964532</v>
+        <v>0.9959512429645299</v>
       </c>
       <c r="K9">
-        <v>1.0078260990105</v>
+        <v>1.007826099010498</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9918108807114773</v>
+        <v>0.9918108807114753</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9545798045366167</v>
+        <v>0.9545798045366153</v>
       </c>
       <c r="D10">
-        <v>0.9833297941199188</v>
+        <v>0.9833297941199179</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.9632568595042469</v>
+        <v>0.9632568595042459</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.028578460669238</v>
       </c>
       <c r="J10">
-        <v>0.9847190470691447</v>
+        <v>0.9847190470691431</v>
       </c>
       <c r="K10">
-        <v>0.9980067017796013</v>
+        <v>0.9980067017796004</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
-        <v>0.9783228005038394</v>
+        <v>0.9783228005038381</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -766,13 +766,13 @@
         <v>0.9478490720950459</v>
       </c>
       <c r="D11">
-        <v>0.978152457215364</v>
+        <v>0.9781524572153639</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9563459776415387</v>
+        <v>0.9563459776415385</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -784,13 +784,13 @@
         <v>0.9795646896103919</v>
       </c>
       <c r="K11">
-        <v>0.9934984919840716</v>
+        <v>0.9934984919840713</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9721409319511682</v>
+        <v>0.9721409319511679</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9452863215705523</v>
+        <v>0.9452863215705525</v>
       </c>
       <c r="D12">
-        <v>0.9761828683898213</v>
+        <v>0.9761828683898215</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9537162268169693</v>
+        <v>0.9537162268169698</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.025085714446442</v>
       </c>
       <c r="J12">
-        <v>0.9776013810382258</v>
+        <v>0.9776013810382259</v>
       </c>
       <c r="K12">
-        <v>0.9917810484737951</v>
+        <v>0.9917810484737952</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.969787321603504</v>
+        <v>0.9697873216035044</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.94583899673592</v>
+        <v>0.9458389967359189</v>
       </c>
       <c r="D13">
-        <v>0.9766075419778623</v>
+        <v>0.976607541977861</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9542832780638624</v>
+        <v>0.9542832780638615</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.025293960969764</v>
       </c>
       <c r="J13">
-        <v>0.9780248145132618</v>
+        <v>0.9780248145132607</v>
       </c>
       <c r="K13">
-        <v>0.9921514656005104</v>
+        <v>0.9921514656005093</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9702948854417054</v>
+        <v>0.9702948854417045</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -880,31 +880,31 @@
         <v>0.9476385556948844</v>
       </c>
       <c r="D14">
-        <v>0.9779906295717374</v>
+        <v>0.9779906295717371</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9561299248674402</v>
+        <v>0.9561299248674398</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025971580597101</v>
+        <v>1.025971580597102</v>
       </c>
       <c r="J14">
-        <v>0.9794034288700486</v>
+        <v>0.9794034288700487</v>
       </c>
       <c r="K14">
-        <v>0.9933574306197371</v>
+        <v>0.993357430619737</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9719475915236758</v>
+        <v>0.9719475915236754</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9487387991917724</v>
+        <v>0.9487387991917718</v>
       </c>
       <c r="D15">
-        <v>0.9788364769023168</v>
+        <v>0.9788364769023162</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.957259168669102</v>
+        <v>0.9572591686691017</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026385528488133</v>
+        <v>1.026385528488132</v>
       </c>
       <c r="J15">
-        <v>0.9802462121800426</v>
+        <v>0.9802462121800419</v>
       </c>
       <c r="K15">
-        <v>0.9940946377895845</v>
+        <v>0.9940946377895837</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.972958073474084</v>
+        <v>0.9729580734740835</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9550181100610735</v>
+        <v>0.9550181100610733</v>
       </c>
       <c r="D16">
-        <v>0.9836671580556193</v>
+        <v>0.983667158055619</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9637071105754895</v>
+        <v>0.963707110575489</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.028742686919495</v>
       </c>
       <c r="J16">
-        <v>0.9850545857743156</v>
+        <v>0.9850545857743154</v>
       </c>
       <c r="K16">
-        <v>0.9983001386329567</v>
+        <v>0.9983001386329565</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.9787253803899567</v>
+        <v>0.978725380389956</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9588528998614033</v>
+        <v>0.9588528998614051</v>
       </c>
       <c r="D17">
-        <v>0.9866198683805648</v>
+        <v>0.9866198683805665</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.9676475564299071</v>
+        <v>0.967647556429909</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.030177433828948</v>
       </c>
       <c r="J17">
-        <v>0.9879895927819837</v>
+        <v>0.9879895927819855</v>
       </c>
       <c r="K17">
-        <v>1.000866638779259</v>
+        <v>1.000866638779261</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9822476603054395</v>
+        <v>0.9822476603054411</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9610542669749947</v>
+        <v>0.9610542669749941</v>
       </c>
       <c r="D18">
-        <v>0.9883157189820063</v>
+        <v>0.9883157189820058</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.9699105154838669</v>
+        <v>0.9699105154838662</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.030999291395163</v>
       </c>
       <c r="J18">
-        <v>0.9896738644900045</v>
+        <v>0.9896738644900037</v>
       </c>
       <c r="K18">
-        <v>1.002339233061953</v>
+        <v>1.002339233061952</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.984269664345761</v>
+        <v>0.9842696643457604</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9617990580067136</v>
+        <v>0.9617990580067144</v>
       </c>
       <c r="D19">
-        <v>0.9888896126283132</v>
+        <v>0.9888896126283135</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684963</v>
       </c>
       <c r="F19">
-        <v>0.9706763025331366</v>
+        <v>0.9706763025331371</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031277048665201</v>
+        <v>1.031277048665202</v>
       </c>
       <c r="J19">
-        <v>0.9902436049454031</v>
+        <v>0.9902436049454039</v>
       </c>
       <c r="K19">
         <v>1.002837331986315</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816589</v>
       </c>
       <c r="M19">
-        <v>0.9849537744598811</v>
+        <v>0.9849537744598815</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.958445169924759</v>
+        <v>0.9584451699247588</v>
       </c>
       <c r="D20">
-        <v>0.9863058348898588</v>
+        <v>0.9863058348898583</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660144</v>
       </c>
       <c r="F20">
-        <v>0.9672284944499943</v>
+        <v>0.9672284944499934</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030025068209841</v>
+        <v>1.03002506820984</v>
       </c>
       <c r="J20">
-        <v>0.987677590074178</v>
+        <v>0.9876775900741777</v>
       </c>
       <c r="K20">
         <v>1.000593830910131</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>0.9818731535270047</v>
+        <v>0.981873153527004</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9471104201022913</v>
+        <v>0.9471104201022928</v>
       </c>
       <c r="D21">
-        <v>0.9775846709206372</v>
+        <v>0.9775846709206385</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.955587925644203</v>
+        <v>0.9555879256442047</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02577278451196</v>
+        <v>1.025772784511961</v>
       </c>
       <c r="J21">
-        <v>0.9789988521914883</v>
+        <v>0.9789988521914899</v>
       </c>
       <c r="K21">
-        <v>0.993003527032721</v>
+        <v>0.9930035270327221</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9714625492446998</v>
+        <v>0.9714625492447015</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9396170403792021</v>
+        <v>0.9396170403792024</v>
       </c>
       <c r="D22">
-        <v>0.9718293003581363</v>
+        <v>0.9718293003581366</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651159</v>
       </c>
       <c r="F22">
-        <v>0.9479017599045674</v>
+        <v>0.947901759904568</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.022945986176231</v>
       </c>
       <c r="J22">
-        <v>0.9732569303780663</v>
+        <v>0.9732569303780667</v>
       </c>
       <c r="K22">
-        <v>0.987980271389754</v>
+        <v>0.9879802713897543</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9460223821572513</v>
       </c>
       <c r="M22">
-        <v>0.9645811065474197</v>
+        <v>0.96458110654742</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1222,13 +1222,13 @@
         <v>0.9436267634244733</v>
       </c>
       <c r="D23">
-        <v>0.9749079455483257</v>
+        <v>0.9749079455483255</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>0.9520137398944487</v>
+        <v>0.9520137398944488</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.0244600174547</v>
       </c>
       <c r="J23">
-        <v>0.9763298056981498</v>
+        <v>0.97632980569815</v>
       </c>
       <c r="K23">
         <v>0.9906686506089879</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.9682632537215641</v>
+        <v>0.9682632537215642</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9586295144367535</v>
+        <v>0.9586295144367563</v>
       </c>
       <c r="D24">
-        <v>0.9864478143855337</v>
+        <v>0.9864478143855363</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>0.9674179595322573</v>
+        <v>0.9674179595322601</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030093961860786</v>
+        <v>1.030093961860787</v>
       </c>
       <c r="J24">
-        <v>0.9878186557981246</v>
+        <v>0.9878186557981271</v>
       </c>
       <c r="K24">
-        <v>1.000717176130105</v>
+        <v>1.000717176130107</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9533716596442539</v>
       </c>
       <c r="M24">
-        <v>0.9820424769518253</v>
+        <v>0.9820424769518279</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9746657656916403</v>
+        <v>0.9746657656916402</v>
       </c>
       <c r="D25">
-        <v>0.9988138262648902</v>
+        <v>0.9988138262648899</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9839187780638593</v>
+        <v>0.9839187780638594</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1322,7 +1322,7 @@
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.9967719717104819</v>
+        <v>0.996771971710482</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9865465594987971</v>
+        <v>0.9865465594987978</v>
       </c>
       <c r="D2">
-        <v>1.007991599406321</v>
+        <v>1.007991599406322</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9961699152263509</v>
+        <v>0.9961699152263518</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040403420753229</v>
+        <v>1.04040342075323</v>
       </c>
       <c r="J2">
-        <v>1.009137244050059</v>
+        <v>1.00913724405006</v>
       </c>
       <c r="K2">
-        <v>1.019340710085113</v>
+        <v>1.019340710085114</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.007682868377883</v>
+        <v>1.007682868377884</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9947238102075245</v>
+        <v>0.9947238102075241</v>
       </c>
       <c r="D3">
         <v>1.014314232627898</v>
@@ -480,7 +480,7 @@
         <v>1.01535935024894</v>
       </c>
       <c r="K3">
-        <v>1.024767178543141</v>
+        <v>1.02476717854314</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9998287505532232</v>
+        <v>0.9998287505532236</v>
       </c>
       <c r="D4">
         <v>1.018263049375015</v>
@@ -515,7 +515,7 @@
         <v>1.045198426719626</v>
       </c>
       <c r="J4">
-        <v>1.019236837923766</v>
+        <v>1.019236837923767</v>
       </c>
       <c r="K4">
         <v>1.028145941220268</v>
@@ -541,7 +541,7 @@
         <v>1.019891107954732</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
         <v>1.012073453337937</v>
@@ -553,13 +553,13 @@
         <v>1.045949856598442</v>
       </c>
       <c r="J5">
-        <v>1.020833507918725</v>
+        <v>1.020833507918726</v>
       </c>
       <c r="K5">
         <v>1.029536514563311</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
         <v>1.021807312027218</v>
@@ -579,10 +579,10 @@
         <v>1.020162644258224</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.012436743415929</v>
+        <v>1.012436743415928</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.046074937729306</v>
       </c>
       <c r="J6">
-        <v>1.021099694476338</v>
+        <v>1.021099694476337</v>
       </c>
       <c r="K6">
         <v>1.029768297929186</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.022129368698346</v>
+        <v>1.022129368698345</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9998570297042889</v>
+        <v>0.9998570297042888</v>
       </c>
       <c r="D7">
         <v>1.018284926838924</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
         <v>1.00992494968151</v>
@@ -629,13 +629,13 @@
         <v>1.045208540840895</v>
       </c>
       <c r="J7">
-        <v>1.019258301354498</v>
+        <v>1.019258301354497</v>
       </c>
       <c r="K7">
-        <v>1.028164637119788</v>
+        <v>1.028164637119787</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
         <v>1.019902085390448</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9893504803666797</v>
+        <v>0.9893504803666785</v>
       </c>
       <c r="D8">
-        <v>1.010159141168855</v>
+        <v>1.010159141168853</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9990647642553604</v>
+        <v>0.9990647642553594</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041422637695899</v>
+        <v>1.041422637695898</v>
       </c>
       <c r="J8">
-        <v>1.011272178200379</v>
+        <v>1.011272178200378</v>
       </c>
       <c r="K8">
-        <v>1.021203236641097</v>
+        <v>1.021203236641096</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.010257418823988</v>
+        <v>1.010257418823987</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.969264411142737</v>
+        <v>0.9692644111427392</v>
       </c>
       <c r="D9">
-        <v>0.9946455480584122</v>
+        <v>0.994645548058414</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9783566149065137</v>
+        <v>0.9783566149065162</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03405213278644</v>
+        <v>1.034052132786441</v>
       </c>
       <c r="J9">
-        <v>0.9959512429645299</v>
+        <v>0.995951242964532</v>
       </c>
       <c r="K9">
-        <v>1.007826099010498</v>
+        <v>1.0078260990105</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9918108807114753</v>
+        <v>0.9918108807114773</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9545798045366153</v>
+        <v>0.9545798045366167</v>
       </c>
       <c r="D10">
-        <v>0.9833297941199179</v>
+        <v>0.9833297941199188</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9632568595042459</v>
+        <v>0.9632568595042469</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.028578460669238</v>
       </c>
       <c r="J10">
-        <v>0.9847190470691431</v>
+        <v>0.9847190470691447</v>
       </c>
       <c r="K10">
-        <v>0.9980067017796004</v>
+        <v>0.9980067017796013</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9783228005038381</v>
+        <v>0.9783228005038394</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -766,13 +766,13 @@
         <v>0.9478490720950459</v>
       </c>
       <c r="D11">
-        <v>0.9781524572153639</v>
+        <v>0.978152457215364</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9563459776415385</v>
+        <v>0.9563459776415387</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -784,13 +784,13 @@
         <v>0.9795646896103919</v>
       </c>
       <c r="K11">
-        <v>0.9934984919840713</v>
+        <v>0.9934984919840716</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9721409319511679</v>
+        <v>0.9721409319511682</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9452863215705525</v>
+        <v>0.9452863215705523</v>
       </c>
       <c r="D12">
-        <v>0.9761828683898215</v>
+        <v>0.9761828683898213</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9537162268169698</v>
+        <v>0.9537162268169693</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.025085714446442</v>
       </c>
       <c r="J12">
-        <v>0.9776013810382259</v>
+        <v>0.9776013810382258</v>
       </c>
       <c r="K12">
-        <v>0.9917810484737952</v>
+        <v>0.9917810484737951</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9697873216035044</v>
+        <v>0.969787321603504</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9458389967359189</v>
+        <v>0.94583899673592</v>
       </c>
       <c r="D13">
-        <v>0.976607541977861</v>
+        <v>0.9766075419778623</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9542832780638615</v>
+        <v>0.9542832780638624</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.025293960969764</v>
       </c>
       <c r="J13">
-        <v>0.9780248145132607</v>
+        <v>0.9780248145132618</v>
       </c>
       <c r="K13">
-        <v>0.9921514656005093</v>
+        <v>0.9921514656005104</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9702948854417045</v>
+        <v>0.9702948854417054</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -880,31 +880,31 @@
         <v>0.9476385556948844</v>
       </c>
       <c r="D14">
-        <v>0.9779906295717371</v>
+        <v>0.9779906295717374</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9561299248674398</v>
+        <v>0.9561299248674402</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025971580597102</v>
+        <v>1.025971580597101</v>
       </c>
       <c r="J14">
-        <v>0.9794034288700487</v>
+        <v>0.9794034288700486</v>
       </c>
       <c r="K14">
-        <v>0.993357430619737</v>
+        <v>0.9933574306197371</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9719475915236754</v>
+        <v>0.9719475915236758</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9487387991917718</v>
+        <v>0.9487387991917724</v>
       </c>
       <c r="D15">
-        <v>0.9788364769023162</v>
+        <v>0.9788364769023168</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9572591686691017</v>
+        <v>0.957259168669102</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026385528488132</v>
+        <v>1.026385528488133</v>
       </c>
       <c r="J15">
-        <v>0.9802462121800419</v>
+        <v>0.9802462121800426</v>
       </c>
       <c r="K15">
-        <v>0.9940946377895837</v>
+        <v>0.9940946377895845</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9729580734740835</v>
+        <v>0.972958073474084</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9550181100610733</v>
+        <v>0.9550181100610735</v>
       </c>
       <c r="D16">
-        <v>0.983667158055619</v>
+        <v>0.9836671580556193</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.963707110575489</v>
+        <v>0.9637071105754895</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.028742686919495</v>
       </c>
       <c r="J16">
-        <v>0.9850545857743154</v>
+        <v>0.9850545857743156</v>
       </c>
       <c r="K16">
-        <v>0.9983001386329565</v>
+        <v>0.9983001386329567</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.978725380389956</v>
+        <v>0.9787253803899567</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9588528998614051</v>
+        <v>0.9588528998614033</v>
       </c>
       <c r="D17">
-        <v>0.9866198683805665</v>
+        <v>0.9866198683805648</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.967647556429909</v>
+        <v>0.9676475564299071</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.030177433828948</v>
       </c>
       <c r="J17">
-        <v>0.9879895927819855</v>
+        <v>0.9879895927819837</v>
       </c>
       <c r="K17">
-        <v>1.000866638779261</v>
+        <v>1.000866638779259</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9822476603054411</v>
+        <v>0.9822476603054395</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9610542669749941</v>
+        <v>0.9610542669749947</v>
       </c>
       <c r="D18">
-        <v>0.9883157189820058</v>
+        <v>0.9883157189820063</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9699105154838662</v>
+        <v>0.9699105154838669</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.030999291395163</v>
       </c>
       <c r="J18">
-        <v>0.9896738644900037</v>
+        <v>0.9896738644900045</v>
       </c>
       <c r="K18">
-        <v>1.002339233061952</v>
+        <v>1.002339233061953</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9842696643457604</v>
+        <v>0.984269664345761</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9617990580067144</v>
+        <v>0.9617990580067136</v>
       </c>
       <c r="D19">
-        <v>0.9888896126283135</v>
+        <v>0.9888896126283132</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684963</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9706763025331371</v>
+        <v>0.9706763025331366</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031277048665202</v>
+        <v>1.031277048665201</v>
       </c>
       <c r="J19">
-        <v>0.9902436049454039</v>
+        <v>0.9902436049454031</v>
       </c>
       <c r="K19">
         <v>1.002837331986315</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816589</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>0.9849537744598815</v>
+        <v>0.9849537744598811</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9584451699247588</v>
+        <v>0.958445169924759</v>
       </c>
       <c r="D20">
-        <v>0.9863058348898583</v>
+        <v>0.9863058348898588</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660144</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9672284944499934</v>
+        <v>0.9672284944499943</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03002506820984</v>
+        <v>1.030025068209841</v>
       </c>
       <c r="J20">
-        <v>0.9876775900741777</v>
+        <v>0.987677590074178</v>
       </c>
       <c r="K20">
         <v>1.000593830910131</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.981873153527004</v>
+        <v>0.9818731535270047</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9471104201022928</v>
+        <v>0.9471104201022913</v>
       </c>
       <c r="D21">
-        <v>0.9775846709206385</v>
+        <v>0.9775846709206372</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9555879256442047</v>
+        <v>0.955587925644203</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025772784511961</v>
+        <v>1.02577278451196</v>
       </c>
       <c r="J21">
-        <v>0.9789988521914899</v>
+        <v>0.9789988521914883</v>
       </c>
       <c r="K21">
-        <v>0.9930035270327221</v>
+        <v>0.993003527032721</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9714625492447015</v>
+        <v>0.9714625492446998</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9396170403792024</v>
+        <v>0.9396170403792021</v>
       </c>
       <c r="D22">
-        <v>0.9718293003581366</v>
+        <v>0.9718293003581363</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651159</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.947901759904568</v>
+        <v>0.9479017599045674</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.022945986176231</v>
       </c>
       <c r="J22">
-        <v>0.9732569303780667</v>
+        <v>0.9732569303780663</v>
       </c>
       <c r="K22">
-        <v>0.9879802713897543</v>
+        <v>0.987980271389754</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572513</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.96458110654742</v>
+        <v>0.9645811065474197</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1222,13 +1222,13 @@
         <v>0.9436267634244733</v>
       </c>
       <c r="D23">
-        <v>0.9749079455483255</v>
+        <v>0.9749079455483257</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9520137398944488</v>
+        <v>0.9520137398944487</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.0244600174547</v>
       </c>
       <c r="J23">
-        <v>0.97632980569815</v>
+        <v>0.9763298056981498</v>
       </c>
       <c r="K23">
         <v>0.9906686506089879</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9682632537215642</v>
+        <v>0.9682632537215641</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9586295144367563</v>
+        <v>0.9586295144367535</v>
       </c>
       <c r="D24">
-        <v>0.9864478143855363</v>
+        <v>0.9864478143855337</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9674179595322601</v>
+        <v>0.9674179595322573</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030093961860787</v>
+        <v>1.030093961860786</v>
       </c>
       <c r="J24">
-        <v>0.9878186557981271</v>
+        <v>0.9878186557981246</v>
       </c>
       <c r="K24">
-        <v>1.000717176130107</v>
+        <v>1.000717176130105</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442539</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9820424769518279</v>
+        <v>0.9820424769518253</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9746657656916402</v>
+        <v>0.9746657656916403</v>
       </c>
       <c r="D25">
-        <v>0.9988138262648899</v>
+        <v>0.9988138262648902</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9839187780638594</v>
+        <v>0.9839187780638593</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1322,7 +1322,7 @@
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.996771971710482</v>
+        <v>0.9967719717104819</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9865465594987978</v>
+        <v>0.9865747453350743</v>
       </c>
       <c r="D2">
-        <v>1.007991599406322</v>
+        <v>1.008014299426044</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9961699152263518</v>
+        <v>0.996193645077907</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04040342075323</v>
+        <v>1.040415584250354</v>
       </c>
       <c r="J2">
-        <v>1.00913724405006</v>
+        <v>1.00916455481881</v>
       </c>
       <c r="K2">
-        <v>1.019340710085114</v>
+        <v>1.019363100149105</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.007682868377884</v>
+        <v>1.007706264425716</v>
+      </c>
+      <c r="N2">
+        <v>1.006731597107481</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9947238102075241</v>
+        <v>0.9947441034162362</v>
       </c>
       <c r="D3">
-        <v>1.014314232627898</v>
+        <v>1.014330602244402</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.004616337839522</v>
+        <v>1.004633386307583</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043365708880601</v>
+        <v>1.043374487612907</v>
       </c>
       <c r="J3">
-        <v>1.01535935024894</v>
+        <v>1.015379082225438</v>
       </c>
       <c r="K3">
-        <v>1.02476717854314</v>
+        <v>1.02478334600711</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.015190490562669</v>
+        <v>1.015207323392158</v>
+      </c>
+      <c r="N3">
+        <v>1.011172439973095</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9998287505532236</v>
+        <v>0.9998442402883718</v>
       </c>
       <c r="D4">
-        <v>1.018263049375015</v>
+        <v>1.018275556245259</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.009895690116432</v>
+        <v>1.009908686264976</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045198426719626</v>
+        <v>1.04520513759513</v>
       </c>
       <c r="J4">
-        <v>1.019236837923767</v>
+        <v>1.01925193125464</v>
       </c>
       <c r="K4">
-        <v>1.028145941220268</v>
+        <v>1.028158303762521</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.019876132172061</v>
+        <v>1.019888975254394</v>
+      </c>
+      <c r="N4">
+        <v>1.013935155728274</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00193311763643</v>
+        <v>1.001946653433775</v>
       </c>
       <c r="D5">
-        <v>1.019891107954732</v>
+        <v>1.019902041399327</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.012073453337937</v>
+        <v>1.012084804118246</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045949856598442</v>
+        <v>1.045955724572577</v>
       </c>
       <c r="J5">
-        <v>1.020833507918726</v>
+        <v>1.020846708680141</v>
       </c>
       <c r="K5">
-        <v>1.029536514563311</v>
+        <v>1.029547325471729</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.021807312027218</v>
+        <v>1.021818533158199</v>
+      </c>
+      <c r="N5">
+        <v>1.015071637224118</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002284079428611</v>
+        <v>1.002297290796775</v>
       </c>
       <c r="D6">
-        <v>1.020162644258224</v>
+        <v>1.020173316333471</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.012436743415928</v>
+        <v>1.012447821170043</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046074937729306</v>
+        <v>1.04608066565024</v>
       </c>
       <c r="J6">
-        <v>1.021099694476337</v>
+        <v>1.021112580680006</v>
       </c>
       <c r="K6">
-        <v>1.029768297929186</v>
+        <v>1.029778850988509</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.022129368698345</v>
+        <v>1.022140320576932</v>
+      </c>
+      <c r="N6">
+        <v>1.015261036151484</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9998570297042888</v>
+        <v>0.9998724930825001</v>
       </c>
       <c r="D7">
-        <v>1.018284926838924</v>
+        <v>1.018297412493268</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.00992494968151</v>
+        <v>1.009937923623861</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045208540840895</v>
+        <v>1.045215240353164</v>
       </c>
       <c r="J7">
-        <v>1.019258301354497</v>
+        <v>1.019273369178102</v>
       </c>
       <c r="K7">
-        <v>1.028164637119787</v>
+        <v>1.028176978746804</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.019902085390448</v>
+        <v>1.019914906590312</v>
+      </c>
+      <c r="N7">
+        <v>1.013950437589605</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9893504803666785</v>
+        <v>0.9893759313035472</v>
       </c>
       <c r="D8">
-        <v>1.010159141168853</v>
+        <v>1.010179649958965</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9990647642553594</v>
+        <v>0.999086175680082</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041422637695898</v>
+        <v>1.041433630122562</v>
       </c>
       <c r="J8">
-        <v>1.011272178200378</v>
+        <v>1.011296868857306</v>
       </c>
       <c r="K8">
-        <v>1.021203236641096</v>
+        <v>1.021223474598881</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.010257418823987</v>
+        <v>1.010278539541582</v>
+      </c>
+      <c r="N8">
+        <v>1.008256335895897</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9692644111427392</v>
+        <v>0.9693101766336867</v>
       </c>
       <c r="D9">
-        <v>0.994645548058414</v>
+        <v>0.9946822731214313</v>
       </c>
       <c r="E9">
         <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9783566149065162</v>
+        <v>0.978395329182422</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034052132786441</v>
+        <v>1.034071779883887</v>
       </c>
       <c r="J9">
-        <v>0.995951242964532</v>
+        <v>0.9959952442276808</v>
       </c>
       <c r="K9">
-        <v>1.0078260990105</v>
+        <v>1.007862219983904</v>
       </c>
       <c r="L9">
         <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9918108807114773</v>
+        <v>0.9918489304777446</v>
+      </c>
+      <c r="N9">
+        <v>0.9972942908363821</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9545798045366167</v>
+        <v>0.9546416181606943</v>
       </c>
       <c r="D10">
-        <v>0.9833297941199188</v>
+        <v>0.9833792307379632</v>
       </c>
       <c r="E10">
         <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9632568595042469</v>
+        <v>0.9633093748957506</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028578460669238</v>
+        <v>1.028604875815225</v>
       </c>
       <c r="J10">
-        <v>0.9847190470691447</v>
+        <v>0.9847780610795829</v>
       </c>
       <c r="K10">
-        <v>0.9980067017796013</v>
+        <v>0.9980552058821969</v>
       </c>
       <c r="L10">
         <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9783228005038394</v>
+        <v>0.9783742702830853</v>
+      </c>
+      <c r="N10">
+        <v>0.9892327332994745</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9478490720950459</v>
+        <v>0.9479186338814554</v>
       </c>
       <c r="D11">
-        <v>0.978152457215364</v>
+        <v>0.9782079995907313</v>
       </c>
       <c r="E11">
         <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9563459776415387</v>
+        <v>0.9564051971106662</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026050804389676</v>
+        <v>1.026080466423508</v>
       </c>
       <c r="J11">
-        <v>0.9795646896103919</v>
+        <v>0.9796308778953168</v>
       </c>
       <c r="K11">
-        <v>0.9934984919840716</v>
+        <v>0.9935529245405055</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9721409319511682</v>
+        <v>0.9721988955847328</v>
+      </c>
+      <c r="N11">
+        <v>0.9855277519766414</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9452863215705523</v>
+        <v>0.9453589043129165</v>
       </c>
       <c r="D12">
-        <v>0.9761828683898213</v>
+        <v>0.9762407858098847</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9537162268169693</v>
+        <v>0.9537780672217088</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025085714446442</v>
+        <v>1.025116638852113</v>
       </c>
       <c r="J12">
-        <v>0.9776013810382258</v>
+        <v>0.9776703537891209</v>
       </c>
       <c r="K12">
-        <v>0.9917810484737951</v>
+        <v>0.9918377838322285</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.969787321603504</v>
+        <v>0.9698478196853605</v>
+      </c>
+      <c r="N12">
+        <v>0.9841157085687696</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.94583899673592</v>
+        <v>0.9459109245753666</v>
       </c>
       <c r="D13">
-        <v>0.9766075419778623</v>
+        <v>0.9766649447838756</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9542832780638624</v>
+        <v>0.9543445499511306</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025293960969764</v>
+        <v>1.025324611878297</v>
       </c>
       <c r="J13">
-        <v>0.9780248145132618</v>
+        <v>0.9780931842295516</v>
       </c>
       <c r="K13">
-        <v>0.9921514656005104</v>
+        <v>0.9922077021510396</v>
       </c>
       <c r="L13">
         <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9702948854417054</v>
+        <v>0.9703548339688484</v>
+      </c>
+      <c r="N13">
+        <v>0.9844202845019197</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9476385556948844</v>
+        <v>0.9477083641260104</v>
       </c>
       <c r="D14">
-        <v>0.9779906295717374</v>
+        <v>0.9780463659732492</v>
       </c>
       <c r="E14">
         <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9561299248674402</v>
+        <v>0.9561893581742039</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025971580597101</v>
+        <v>1.026001345771209</v>
       </c>
       <c r="J14">
-        <v>0.9794034288700486</v>
+        <v>0.9794698447572887</v>
       </c>
       <c r="K14">
-        <v>0.9933574306197371</v>
+        <v>0.9934120513683863</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9719475915236758</v>
+        <v>0.972005762028101</v>
+      </c>
+      <c r="N14">
+        <v>0.9854117867167653</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9487387991917724</v>
+        <v>0.9488073215064337</v>
       </c>
       <c r="D15">
-        <v>0.9788364769023168</v>
+        <v>0.9788912013363368</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.957259168669102</v>
+        <v>0.9573174872195551</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026385528488133</v>
+        <v>1.026414755696428</v>
       </c>
       <c r="J15">
-        <v>0.9802462121800426</v>
+        <v>0.9803114407251617</v>
       </c>
       <c r="K15">
-        <v>0.9940946377895845</v>
+        <v>0.9941482768646877</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.972958073474084</v>
+        <v>0.9730151653648971</v>
+      </c>
+      <c r="N15">
+        <v>0.986017813658592</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9550181100610735</v>
+        <v>0.9550794281331374</v>
       </c>
       <c r="D16">
-        <v>0.9836671580556193</v>
+        <v>0.98371620346804</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9637071105754895</v>
+        <v>0.9637591980862236</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028742686919495</v>
+        <v>1.028768893950029</v>
       </c>
       <c r="J16">
-        <v>0.9850545857743156</v>
+        <v>0.9851131393203433</v>
       </c>
       <c r="K16">
-        <v>0.9983001386329567</v>
+        <v>0.998348262468808</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9787253803899567</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9787764351601945</v>
+      </c>
+      <c r="N16">
+        <v>0.9894738079847505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9588528998614033</v>
+        <v>0.9589099273805365</v>
       </c>
       <c r="D17">
-        <v>0.9866198683805648</v>
+        <v>0.9866655231766266</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9676475564299071</v>
+        <v>0.9676959438300652</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030177433828948</v>
+        <v>1.03020183666273</v>
       </c>
       <c r="J17">
-        <v>0.9879895927819837</v>
+        <v>0.9880441513460961</v>
       </c>
       <c r="K17">
-        <v>1.000866638779259</v>
+        <v>1.000911464636425</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9822476603054395</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9822951234964605</v>
+      </c>
+      <c r="N17">
+        <v>0.9915819003050839</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9610542669749947</v>
+        <v>0.9611088671995718</v>
       </c>
       <c r="D18">
-        <v>0.9883157189820063</v>
+        <v>0.9883594528194479</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9699105154838669</v>
+        <v>0.9699568132396801</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030999291395163</v>
+        <v>1.031022671695649</v>
       </c>
       <c r="J18">
-        <v>0.9896738644900045</v>
+        <v>0.9897261564023847</v>
       </c>
       <c r="K18">
-        <v>1.002339233061953</v>
+        <v>1.002382188696362</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.984269664345761</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9843150969642072</v>
+      </c>
+      <c r="N18">
+        <v>0.9927911174766926</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9617990580067136</v>
+        <v>0.9618528427521906</v>
       </c>
       <c r="D19">
-        <v>0.9888896126283132</v>
+        <v>0.98893270064484</v>
       </c>
       <c r="E19">
         <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9706763025331366</v>
+        <v>0.9707218988372994</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031277048665201</v>
+        <v>1.031300085131654</v>
       </c>
       <c r="J19">
-        <v>0.9902436049454031</v>
+        <v>0.9902951342761248</v>
       </c>
       <c r="K19">
-        <v>1.002837331986315</v>
+        <v>1.0028796585695</v>
       </c>
       <c r="L19">
         <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>0.9849537744598811</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9849985250927772</v>
+      </c>
+      <c r="N19">
+        <v>0.9932000707958117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.958445169924759</v>
+        <v>0.9585026498417004</v>
       </c>
       <c r="D20">
-        <v>0.9863058348898588</v>
+        <v>0.9863518474906248</v>
       </c>
       <c r="E20">
         <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9672284944499943</v>
+        <v>0.9672772716067793</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030025068209841</v>
+        <v>1.030049661474821</v>
       </c>
       <c r="J20">
-        <v>0.987677590074178</v>
+        <v>0.9877325705688756</v>
       </c>
       <c r="K20">
-        <v>1.000593830910131</v>
+        <v>1.000639004981172</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9818731535270047</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9819209952783418</v>
+      </c>
+      <c r="N20">
+        <v>0.9913578562192521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9471104201022913</v>
+        <v>0.9471808484884362</v>
       </c>
       <c r="D21">
-        <v>0.9775846709206372</v>
+        <v>0.977640894925933</v>
       </c>
       <c r="E21">
         <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.955587925644203</v>
+        <v>0.9556478965596686</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02577278451196</v>
+        <v>1.025802808876235</v>
       </c>
       <c r="J21">
-        <v>0.9789988521914883</v>
+        <v>0.9790658399605349</v>
       </c>
       <c r="K21">
-        <v>0.993003527032721</v>
+        <v>0.9930586206705212</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9714625492446998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9715212397721544</v>
+      </c>
+      <c r="N21">
+        <v>0.9851208361423479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9396170403792021</v>
+        <v>0.9396964528397888</v>
       </c>
       <c r="D22">
-        <v>0.9718293003581363</v>
+        <v>0.9718925757899851</v>
       </c>
       <c r="E22">
         <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9479017599045674</v>
+        <v>0.9479695400634193</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022945986176231</v>
+        <v>1.022979757277651</v>
       </c>
       <c r="J22">
-        <v>0.9732569303780663</v>
+        <v>0.9733321723283274</v>
       </c>
       <c r="K22">
-        <v>0.987980271389754</v>
+        <v>0.9880421952512854</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9645811065474197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9646473396506456</v>
+      </c>
+      <c r="N22">
+        <v>0.9809896634074767</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9436267634244733</v>
+        <v>0.9437013241505626</v>
       </c>
       <c r="D23">
-        <v>0.9749079455483257</v>
+        <v>0.9749674163555804</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9520137398944487</v>
+        <v>0.952077298492142</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0244600174547</v>
+        <v>1.024491767333042</v>
       </c>
       <c r="J23">
-        <v>0.9763298056981498</v>
+        <v>0.9764005977688619</v>
       </c>
       <c r="K23">
-        <v>0.9906686506089879</v>
+        <v>0.9907268911343791</v>
       </c>
       <c r="L23">
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9682632537215641</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9683254120096035</v>
+      </c>
+      <c r="N23">
+        <v>0.9832009486645215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9586295144367535</v>
+        <v>0.9586867897035652</v>
       </c>
       <c r="D24">
-        <v>0.9864478143855337</v>
+        <v>0.9864936651356924</v>
       </c>
       <c r="E24">
         <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9674179595322573</v>
+        <v>0.967466560364492</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030093961860786</v>
+        <v>1.0301184689866</v>
       </c>
       <c r="J24">
-        <v>0.9878186557981246</v>
+        <v>0.9878734454455336</v>
       </c>
       <c r="K24">
-        <v>1.000717176130105</v>
+        <v>1.000762192694332</v>
       </c>
       <c r="L24">
         <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9820424769518253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9820901474507068</v>
+      </c>
+      <c r="N24">
+        <v>0.9914591548629241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9746657656916403</v>
+        <v>0.9747058959482471</v>
       </c>
       <c r="D25">
-        <v>0.9988138262648902</v>
+        <v>0.9988460669077219</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9839187780638593</v>
+        <v>0.9839526736486143</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036048926995645</v>
+        <v>1.036066183319603</v>
       </c>
       <c r="J25">
-        <v>1.000076877840211</v>
+        <v>1.000115557199297</v>
       </c>
       <c r="K25">
-        <v>1.011430584002826</v>
+        <v>1.011462322651362</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.9967719717104819</v>
+        <v>0.9968053188231567</v>
+      </c>
+      <c r="N25">
+        <v>1.000250458330017</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9865747453350743</v>
+        <v>0.9904364349938444</v>
       </c>
       <c r="D2">
-        <v>1.008014299426044</v>
+        <v>1.010794377732603</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.000070091048143</v>
       </c>
       <c r="F2">
-        <v>0.996193645077907</v>
+        <v>1.002860937172477</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040415584250354</v>
+        <v>1.041994262260159</v>
       </c>
       <c r="J2">
-        <v>1.00916455481881</v>
+        <v>1.012907002404394</v>
       </c>
       <c r="K2">
-        <v>1.019363100149105</v>
+        <v>1.022105350510226</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.011528449477358</v>
       </c>
       <c r="M2">
-        <v>1.007706264425716</v>
+        <v>1.014280557974665</v>
       </c>
       <c r="N2">
-        <v>1.006731597107481</v>
+        <v>1.014345446529865</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9947441034162362</v>
+        <v>0.998212761104421</v>
       </c>
       <c r="D3">
-        <v>1.014330602244402</v>
+        <v>1.01674680405824</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.007429923534858</v>
       </c>
       <c r="F3">
-        <v>1.004633386307583</v>
+        <v>1.010925821174361</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043374487612907</v>
+        <v>1.044516435942332</v>
       </c>
       <c r="J3">
-        <v>1.015379082225438</v>
+        <v>1.018752266915703</v>
       </c>
       <c r="K3">
-        <v>1.02478334600711</v>
+        <v>1.027169798338114</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.017968611661003</v>
       </c>
       <c r="M3">
-        <v>1.015207323392158</v>
+        <v>1.021420787012826</v>
       </c>
       <c r="N3">
-        <v>1.011172439973095</v>
+        <v>1.020199011987241</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9998442402883718</v>
+        <v>1.003078215369545</v>
       </c>
       <c r="D4">
-        <v>1.018275556245259</v>
+        <v>1.020471495700336</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.012051253006742</v>
       </c>
       <c r="F4">
-        <v>1.009908686264976</v>
+        <v>1.015988235817439</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04520513759513</v>
+        <v>1.046076906441062</v>
       </c>
       <c r="J4">
-        <v>1.01925193125464</v>
+        <v>1.022403506505659</v>
       </c>
       <c r="K4">
-        <v>1.028158303762521</v>
+        <v>1.030328970008771</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.022006373753234</v>
       </c>
       <c r="M4">
-        <v>1.019888975254394</v>
+        <v>1.025897451819752</v>
       </c>
       <c r="N4">
-        <v>1.013935155728274</v>
+        <v>1.023855436756218</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001946653433775</v>
+        <v>1.005086180733542</v>
       </c>
       <c r="D5">
-        <v>1.019902041399327</v>
+        <v>1.02200863328259</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>1.01396235998622</v>
       </c>
       <c r="F5">
-        <v>1.012084804118246</v>
+        <v>1.01808138834221</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045955724572577</v>
+        <v>1.046716602677505</v>
       </c>
       <c r="J5">
-        <v>1.020846708680141</v>
+        <v>1.023908855009589</v>
       </c>
       <c r="K5">
-        <v>1.029547325471729</v>
+        <v>1.031630368000177</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>1.023674692734051</v>
       </c>
       <c r="M5">
-        <v>1.021818533158199</v>
+        <v>1.027747121993286</v>
       </c>
       <c r="N5">
-        <v>1.015071637224118</v>
+        <v>1.025362923027689</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002297290796775</v>
+        <v>1.005421193991499</v>
       </c>
       <c r="D6">
-        <v>1.020173316333471</v>
+        <v>1.022265086719366</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>1.014281440538888</v>
       </c>
       <c r="F6">
-        <v>1.012447821170043</v>
+        <v>1.018430842976054</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04608066565024</v>
+        <v>1.046823075123962</v>
       </c>
       <c r="J6">
-        <v>1.021112580680006</v>
+        <v>1.024159919574236</v>
       </c>
       <c r="K6">
-        <v>1.029778850988509</v>
+        <v>1.03184735277284</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>1.023953151398541</v>
       </c>
       <c r="M6">
-        <v>1.022140320576932</v>
+        <v>1.028055850525397</v>
       </c>
       <c r="N6">
-        <v>1.015261036151484</v>
+        <v>1.025614344132816</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9998724930825001</v>
+        <v>1.003105190189121</v>
       </c>
       <c r="D7">
-        <v>1.018297412493268</v>
+        <v>1.020492145780141</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.012076911297755</v>
       </c>
       <c r="F7">
-        <v>1.009937923623861</v>
+        <v>1.016016339622683</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045215240353164</v>
+        <v>1.046085517234662</v>
       </c>
       <c r="J7">
-        <v>1.019273369178102</v>
+        <v>1.022423735301323</v>
       </c>
       <c r="K7">
-        <v>1.028176978746804</v>
+        <v>1.030346462453396</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.022028778173204</v>
       </c>
       <c r="M7">
-        <v>1.019914906590312</v>
+        <v>1.025922291631883</v>
       </c>
       <c r="N7">
-        <v>1.013950437589605</v>
+        <v>1.023875694279092</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9893759313035472</v>
+        <v>0.993100412096502</v>
       </c>
       <c r="D8">
-        <v>1.010179649958965</v>
+        <v>1.01283335990838</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>1.002587865145074</v>
       </c>
       <c r="F8">
-        <v>0.999086175680082</v>
+        <v>1.005620268864928</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041433630122562</v>
+        <v>1.042861963541791</v>
       </c>
       <c r="J8">
-        <v>1.011296868857306</v>
+        <v>1.014910667563146</v>
       </c>
       <c r="K8">
-        <v>1.021223474598881</v>
+        <v>1.023842256501735</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.013732895891681</v>
       </c>
       <c r="M8">
-        <v>1.010278539541582</v>
+        <v>1.016724644450975</v>
       </c>
       <c r="N8">
-        <v>1.008256335895897</v>
+        <v>1.016351957122966</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9693101766336867</v>
+        <v>0.9740779208552202</v>
       </c>
       <c r="D9">
-        <v>0.9946822731214313</v>
+        <v>0.9982817452122918</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9846840895957634</v>
       </c>
       <c r="F9">
-        <v>0.978395329182422</v>
+        <v>0.9859903572984469</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034071779883887</v>
+        <v>1.036593265093388</v>
       </c>
       <c r="J9">
-        <v>0.9959952442276808</v>
+        <v>1.000580475218902</v>
       </c>
       <c r="K9">
-        <v>1.007862219983904</v>
+        <v>1.011402761552393</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9980306425794205</v>
       </c>
       <c r="M9">
-        <v>0.9918489304777446</v>
+        <v>0.9993148956603973</v>
       </c>
       <c r="N9">
-        <v>0.9972942908363821</v>
+        <v>1.002001414261897</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9546416181606943</v>
+        <v>0.9602693876296489</v>
       </c>
       <c r="D10">
-        <v>0.9833792307379632</v>
+        <v>0.9877369349928092</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9717880477166371</v>
       </c>
       <c r="F10">
-        <v>0.9633093748957506</v>
+        <v>0.971838284303842</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028604875815225</v>
+        <v>1.031953853539431</v>
       </c>
       <c r="J10">
-        <v>0.9847780610795829</v>
+        <v>0.9901531026736313</v>
       </c>
       <c r="K10">
-        <v>0.9980552058821969</v>
+        <v>1.002331189985078</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9866860708757407</v>
       </c>
       <c r="M10">
-        <v>0.9783742702830853</v>
+        <v>0.9867353301133112</v>
       </c>
       <c r="N10">
-        <v>0.9892327332994745</v>
+        <v>0.9915592336515764</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9479186338814554</v>
+        <v>0.9539715671869182</v>
       </c>
       <c r="D11">
-        <v>0.9782079995907313</v>
+        <v>0.982934917612318</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9659319413294303</v>
       </c>
       <c r="F11">
-        <v>0.9564051971106662</v>
+        <v>0.9654080799335401</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026080466423508</v>
+        <v>1.029818412877996</v>
       </c>
       <c r="J11">
-        <v>0.9796308778953168</v>
+        <v>0.9853929768512458</v>
       </c>
       <c r="K11">
-        <v>0.9935529245405055</v>
+        <v>0.9981859952475207</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9815262578166555</v>
       </c>
       <c r="M11">
-        <v>0.9721988955847328</v>
+        <v>0.9810132251430767</v>
       </c>
       <c r="N11">
-        <v>0.9855277519766414</v>
+        <v>0.9867923479045285</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9453589043129165</v>
+        <v>0.9515792163897441</v>
       </c>
       <c r="D12">
-        <v>0.9762407858098847</v>
+        <v>0.9811121573920668</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9637113928639521</v>
       </c>
       <c r="F12">
-        <v>0.9537780672217088</v>
+        <v>0.9629692089352545</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025116638852113</v>
+        <v>1.029004454510946</v>
       </c>
       <c r="J12">
-        <v>0.9776703537891209</v>
+        <v>0.9835842421514049</v>
       </c>
       <c r="K12">
-        <v>0.9918377838322285</v>
+        <v>0.9966103910275913</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9795684893674902</v>
       </c>
       <c r="M12">
-        <v>0.9698478196853605</v>
+        <v>0.9788419936129715</v>
       </c>
       <c r="N12">
-        <v>0.9841157085687696</v>
+        <v>0.9849810445939495</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9459109245753666</v>
+        <v>0.9520948769772873</v>
       </c>
       <c r="D13">
-        <v>0.9766649447838756</v>
+        <v>0.9815049780074178</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9641898383808939</v>
       </c>
       <c r="F13">
-        <v>0.9543445499511306</v>
+        <v>0.9634947246717009</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025324611878297</v>
+        <v>1.029180021791017</v>
       </c>
       <c r="J13">
-        <v>0.9780931842295516</v>
+        <v>0.9839741271154904</v>
       </c>
       <c r="K13">
-        <v>0.9922077021510396</v>
+        <v>0.9969500457594991</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9799903718271564</v>
       </c>
       <c r="M13">
-        <v>0.9703548339688484</v>
+        <v>0.9793098812144987</v>
       </c>
       <c r="N13">
-        <v>0.9844202845019197</v>
+        <v>0.9853714832394042</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9477083641260104</v>
+        <v>0.9537749300102417</v>
       </c>
       <c r="D14">
-        <v>0.9780463659732492</v>
+        <v>0.9827850677000572</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9657493430306908</v>
       </c>
       <c r="F14">
-        <v>0.9561893581742039</v>
+        <v>0.9652075420019314</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026001345771209</v>
+        <v>1.029751565394158</v>
       </c>
       <c r="J14">
-        <v>0.9794698447572887</v>
+        <v>0.9852443188203917</v>
       </c>
       <c r="K14">
-        <v>0.9934120513683863</v>
+        <v>0.9980565082376968</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.981365293480933</v>
       </c>
       <c r="M14">
-        <v>0.972005762028101</v>
+        <v>0.9808347127396237</v>
       </c>
       <c r="N14">
-        <v>0.9854117867167653</v>
+        <v>0.9866434787622196</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9488073215064337</v>
+        <v>0.954802866316588</v>
       </c>
       <c r="D15">
-        <v>0.9788912013363368</v>
+        <v>0.9835684777135252</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9667040537493441</v>
       </c>
       <c r="F15">
-        <v>0.9573174872195551</v>
+        <v>0.9662560234823655</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026414755696428</v>
+        <v>1.030100904485127</v>
       </c>
       <c r="J15">
-        <v>0.9803114407251617</v>
+        <v>0.986021420732118</v>
       </c>
       <c r="K15">
-        <v>0.9941482768646877</v>
+        <v>0.9987333736531816</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9822068409901072</v>
       </c>
       <c r="M15">
-        <v>0.9730151653648971</v>
+        <v>0.9817679995446131</v>
       </c>
       <c r="N15">
-        <v>0.986017813658592</v>
+        <v>0.9874216842477953</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9550794281331374</v>
+        <v>0.9606802148847222</v>
       </c>
       <c r="D16">
-        <v>0.98371620346804</v>
+        <v>0.988050359497097</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9721706011126756</v>
       </c>
       <c r="F16">
-        <v>0.9637591980862236</v>
+        <v>0.9722582580238078</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028768893950029</v>
+        <v>1.032092766146104</v>
       </c>
       <c r="J16">
-        <v>0.9851131393203433</v>
+        <v>0.9904635428591394</v>
       </c>
       <c r="K16">
-        <v>0.998348262468808</v>
+        <v>1.002601449751603</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9870229678403746</v>
       </c>
       <c r="M16">
-        <v>0.9787764351601945</v>
+        <v>0.9871089262884091</v>
       </c>
       <c r="N16">
-        <v>0.9894738079847505</v>
+        <v>0.9918701146977559</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9589099273805365</v>
+        <v>0.9642781902845475</v>
       </c>
       <c r="D17">
-        <v>0.9866655231766266</v>
+        <v>0.9907961417537909</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9755238449794205</v>
       </c>
       <c r="F17">
-        <v>0.9676959438300652</v>
+        <v>0.9759390791548691</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03020183666273</v>
+        <v>1.033307173355592</v>
       </c>
       <c r="J17">
-        <v>0.9880441513460961</v>
+        <v>0.9931818632713093</v>
       </c>
       <c r="K17">
-        <v>1.000911464636425</v>
+        <v>1.004967495681165</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.989975085823855</v>
       </c>
       <c r="M17">
-        <v>0.9822951234964605</v>
+        <v>0.9903825590319959</v>
       </c>
       <c r="N17">
-        <v>0.9915819003050839</v>
+        <v>0.9945922954367065</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9611088671995718</v>
+        <v>0.9663464742514897</v>
       </c>
       <c r="D18">
-        <v>0.9883594528194479</v>
+        <v>0.9923752057983301</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9774538220526026</v>
       </c>
       <c r="F18">
-        <v>0.9699568132396801</v>
+        <v>0.978057250273162</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031022671695649</v>
+        <v>1.034003437749959</v>
       </c>
       <c r="J18">
-        <v>0.9897261564023847</v>
+        <v>0.9947440592230048</v>
       </c>
       <c r="K18">
-        <v>1.002382188696362</v>
+        <v>1.006326864004907</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9916734216479454</v>
       </c>
       <c r="M18">
-        <v>0.9843150969642072</v>
+        <v>0.9922658076590712</v>
       </c>
       <c r="N18">
-        <v>0.9927911174766926</v>
+        <v>0.9961567098858402</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9618528427521906</v>
+        <v>0.9670467020321643</v>
       </c>
       <c r="D19">
-        <v>0.98893270064484</v>
+        <v>0.9929099099113169</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9781076238220126</v>
       </c>
       <c r="F19">
-        <v>0.9707218988372994</v>
+        <v>0.9787747484003083</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031300085131654</v>
+        <v>1.034238846107695</v>
       </c>
       <c r="J19">
-        <v>0.9902951342761248</v>
+        <v>0.9952728727568833</v>
       </c>
       <c r="K19">
-        <v>1.0028796585695</v>
+        <v>1.006786952884844</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9922486217014304</v>
       </c>
       <c r="M19">
-        <v>0.9849985250927772</v>
+        <v>0.992903626598722</v>
       </c>
       <c r="N19">
-        <v>0.9932000707958117</v>
+        <v>0.996686274395592</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9585026498417004</v>
+        <v>0.9638953362410539</v>
       </c>
       <c r="D20">
-        <v>0.9863518474906248</v>
+        <v>0.9905038974392883</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9751667840958116</v>
       </c>
       <c r="F20">
-        <v>0.9672772716067793</v>
+        <v>0.9755471734329532</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030049661474821</v>
+        <v>1.033178140131977</v>
       </c>
       <c r="J20">
-        <v>0.9877325705688756</v>
+        <v>0.9928926545344567</v>
       </c>
       <c r="K20">
-        <v>1.000639004981172</v>
+        <v>1.004715805173194</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.989660817942205</v>
       </c>
       <c r="M20">
-        <v>0.9819209952783418</v>
+        <v>0.9900340699368022</v>
       </c>
       <c r="N20">
-        <v>0.9913578562192521</v>
+        <v>0.9943026759902749</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9471808484884362</v>
+        <v>0.9532817066950546</v>
       </c>
       <c r="D21">
-        <v>0.977640894925933</v>
+        <v>0.9824092236869751</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9652913983354497</v>
       </c>
       <c r="F21">
-        <v>0.9556478965596686</v>
+        <v>0.9647045954299028</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025802808876235</v>
+        <v>1.029583848518188</v>
       </c>
       <c r="J21">
-        <v>0.9790658399605349</v>
+        <v>0.9848714335794901</v>
       </c>
       <c r="K21">
-        <v>0.9930586206705212</v>
+        <v>0.9977317022456593</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9809615853424696</v>
       </c>
       <c r="M21">
-        <v>0.9715212397721544</v>
+        <v>0.9803869910576558</v>
       </c>
       <c r="N21">
-        <v>0.9851208361423479</v>
+        <v>0.9862700639815054</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9396964528397888</v>
+        <v>0.9462983136812092</v>
       </c>
       <c r="D22">
-        <v>0.9718925757899851</v>
+        <v>0.9770914783565725</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.958817351302746</v>
       </c>
       <c r="F22">
-        <v>0.9479695400634193</v>
+        <v>0.9575927296977114</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022979757277651</v>
+        <v>1.027202788759421</v>
       </c>
       <c r="J22">
-        <v>0.9733321723283274</v>
+        <v>0.9795908698564282</v>
       </c>
       <c r="K22">
-        <v>0.9880421952512854</v>
+        <v>0.9931308399089723</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9752513036350289</v>
       </c>
       <c r="M22">
-        <v>0.9646473396506456</v>
+        <v>0.9740538420084136</v>
       </c>
       <c r="N22">
-        <v>0.9809896634074767</v>
+        <v>0.9809820012522674</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9437013241505626</v>
+        <v>0.9500316975028906</v>
       </c>
       <c r="D23">
-        <v>0.9749674163555804</v>
+        <v>0.9799335129387338</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9622761603741795</v>
       </c>
       <c r="F23">
-        <v>0.952077298492142</v>
+        <v>0.9613926770061795</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024491767333042</v>
+        <v>1.028477177074409</v>
       </c>
       <c r="J23">
-        <v>0.9764005977688619</v>
+        <v>0.982414119621915</v>
       </c>
       <c r="K23">
-        <v>0.9907268911343791</v>
+        <v>0.995590947892763</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9783027507830004</v>
       </c>
       <c r="M23">
-        <v>0.9683254120096035</v>
+        <v>0.9774382104736151</v>
       </c>
       <c r="N23">
-        <v>0.9832009486645215</v>
+        <v>0.9838092603562526</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9586867897035652</v>
+        <v>0.964068424924005</v>
       </c>
       <c r="D24">
-        <v>0.9864936651356924</v>
+        <v>0.9906360193436194</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.97532820429033</v>
       </c>
       <c r="F24">
-        <v>0.967466560364492</v>
+        <v>0.9757243473589422</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0301184689866</v>
+        <v>1.033236481889295</v>
       </c>
       <c r="J24">
-        <v>0.9878734454455336</v>
+        <v>0.9930234074048438</v>
       </c>
       <c r="K24">
-        <v>1.000762192694332</v>
+        <v>1.004829597026678</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9898028946590627</v>
       </c>
       <c r="M24">
-        <v>0.9820901474507068</v>
+        <v>0.9901916178132694</v>
       </c>
       <c r="N24">
-        <v>0.9914591548629241</v>
+        <v>0.9944336145447356</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9747058959482471</v>
+        <v>0.9791788397312207</v>
       </c>
       <c r="D25">
-        <v>0.9988460669077219</v>
+        <v>1.002181552504031</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9894685160771983</v>
       </c>
       <c r="F25">
-        <v>0.9839526736486143</v>
+        <v>0.9912380100542069</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036066183319603</v>
+        <v>1.038289756216661</v>
       </c>
       <c r="J25">
-        <v>1.000115557199297</v>
+        <v>1.004427826912902</v>
       </c>
       <c r="K25">
-        <v>1.011462322651362</v>
+        <v>1.014746096813351</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>1.002232549814686</v>
       </c>
       <c r="M25">
-        <v>0.9968053188231567</v>
+        <v>1.003973884706788</v>
       </c>
       <c r="N25">
-        <v>1.000250458330017</v>
+        <v>1.0058542296366</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9904364349938444</v>
+        <v>1.028983475763522</v>
       </c>
       <c r="D2">
-        <v>1.010794377732603</v>
+        <v>1.045647222926426</v>
       </c>
       <c r="E2">
-        <v>1.000070091048143</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.002860937172477</v>
+        <v>1.050702959424547</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041994262260159</v>
+        <v>1.062312439135738</v>
       </c>
       <c r="J2">
-        <v>1.012907002404394</v>
+        <v>1.050330553274972</v>
       </c>
       <c r="K2">
-        <v>1.022105350510226</v>
+        <v>1.056505242690651</v>
       </c>
       <c r="L2">
-        <v>1.011528449477358</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.014280557974665</v>
+        <v>1.061498380890274</v>
       </c>
       <c r="N2">
-        <v>1.014345446529865</v>
+        <v>1.020318969848323</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.998212761104421</v>
+        <v>1.033606643167227</v>
       </c>
       <c r="D3">
-        <v>1.01674680405824</v>
+        <v>1.049199538583194</v>
       </c>
       <c r="E3">
-        <v>1.007429923534858</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.010925821174361</v>
+        <v>1.054793841243645</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044516435942332</v>
+        <v>1.064063696634278</v>
       </c>
       <c r="J3">
-        <v>1.018752266915703</v>
+        <v>1.053221274164343</v>
       </c>
       <c r="K3">
-        <v>1.027169798338114</v>
+        <v>1.059239347070838</v>
       </c>
       <c r="L3">
-        <v>1.017968611661003</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.021420787012826</v>
+        <v>1.064770530281784</v>
       </c>
       <c r="N3">
-        <v>1.020199011987241</v>
+        <v>1.0212963561436</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003078215369545</v>
+        <v>1.036534708427814</v>
       </c>
       <c r="D4">
-        <v>1.020471495700336</v>
+        <v>1.051451882950355</v>
       </c>
       <c r="E4">
-        <v>1.012051253006742</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.015988235817439</v>
+        <v>1.057389648820617</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046076906441062</v>
+        <v>1.065162652950612</v>
       </c>
       <c r="J4">
-        <v>1.022403506505659</v>
+        <v>1.055047875175628</v>
       </c>
       <c r="K4">
-        <v>1.030328970008771</v>
+        <v>1.060966589812544</v>
       </c>
       <c r="L4">
-        <v>1.022006373753234</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.025897451819752</v>
+        <v>1.066841466098132</v>
       </c>
       <c r="N4">
-        <v>1.023855436756218</v>
+        <v>1.021913804181287</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005086180733542</v>
+        <v>1.037751019392781</v>
       </c>
       <c r="D5">
-        <v>1.02200863328259</v>
+        <v>1.052388054911306</v>
       </c>
       <c r="E5">
-        <v>1.01396235998622</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.01808138834221</v>
+        <v>1.05846906631087</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046716602677505</v>
+        <v>1.065616672767861</v>
       </c>
       <c r="J5">
-        <v>1.023908855009589</v>
+        <v>1.055805594938842</v>
       </c>
       <c r="K5">
-        <v>1.031630368000177</v>
+        <v>1.061682990704849</v>
       </c>
       <c r="L5">
-        <v>1.023674692734051</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.027747121993286</v>
+        <v>1.067701335334329</v>
       </c>
       <c r="N5">
-        <v>1.025362923027689</v>
+        <v>1.022169897907989</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005421193991499</v>
+        <v>1.037954399549858</v>
       </c>
       <c r="D6">
-        <v>1.022265086719366</v>
+        <v>1.052544624093375</v>
       </c>
       <c r="E6">
-        <v>1.014281440538888</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.018430842976054</v>
+        <v>1.058649621417832</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046823075123962</v>
+        <v>1.065692442618191</v>
       </c>
       <c r="J6">
-        <v>1.024159919574236</v>
+        <v>1.055932231373856</v>
       </c>
       <c r="K6">
-        <v>1.03184735277284</v>
+        <v>1.061802715329547</v>
       </c>
       <c r="L6">
-        <v>1.023953151398541</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.028055850525397</v>
+        <v>1.067845090425775</v>
       </c>
       <c r="N6">
-        <v>1.025614344132816</v>
+        <v>1.022212696008772</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003105190189121</v>
+        <v>1.036551017696741</v>
       </c>
       <c r="D7">
-        <v>1.020492145780141</v>
+        <v>1.051464433763104</v>
       </c>
       <c r="E7">
-        <v>1.012076911297755</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.016016339622683</v>
+        <v>1.057404118118756</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046085517234662</v>
+        <v>1.065168750673931</v>
       </c>
       <c r="J7">
-        <v>1.022423735301323</v>
+        <v>1.055058039460456</v>
       </c>
       <c r="K7">
-        <v>1.030346462453396</v>
+        <v>1.060976200249154</v>
       </c>
       <c r="L7">
-        <v>1.022028778173204</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.025922291631883</v>
+        <v>1.066852997513845</v>
       </c>
       <c r="N7">
-        <v>1.023875694279092</v>
+        <v>1.021917239660827</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.993100412096502</v>
+        <v>1.030559364182656</v>
       </c>
       <c r="D8">
-        <v>1.01283335990838</v>
+        <v>1.046857539705992</v>
       </c>
       <c r="E8">
-        <v>1.002587865145074</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.005620268864928</v>
+        <v>1.0520963626094</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042861963541791</v>
+        <v>1.062911502367228</v>
       </c>
       <c r="J8">
-        <v>1.014910667563146</v>
+        <v>1.051316773647519</v>
       </c>
       <c r="K8">
-        <v>1.023842256501735</v>
+        <v>1.05743810866716</v>
       </c>
       <c r="L8">
-        <v>1.013732895891681</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.016724644450975</v>
+        <v>1.062614033790308</v>
       </c>
       <c r="N8">
-        <v>1.016351957122966</v>
+        <v>1.02065245089848</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9740779208552202</v>
+        <v>1.01948981099355</v>
       </c>
       <c r="D9">
-        <v>0.9982817452122918</v>
+        <v>1.038368479569161</v>
       </c>
       <c r="E9">
-        <v>0.9846840895957634</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9859903572984469</v>
+        <v>1.042331120543527</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036593265093388</v>
+        <v>1.058661713279037</v>
       </c>
       <c r="J9">
-        <v>1.000580475218902</v>
+        <v>1.044372620253128</v>
       </c>
       <c r="K9">
-        <v>1.011402761552393</v>
+        <v>1.050868282408999</v>
       </c>
       <c r="L9">
-        <v>0.9980306425794205</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>0.9993148956603973</v>
+        <v>1.054772808806268</v>
       </c>
       <c r="N9">
-        <v>1.002001414261897</v>
+        <v>1.018303886164759</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9602693876296489</v>
+        <v>1.011727879015203</v>
       </c>
       <c r="D10">
-        <v>0.9877369349928092</v>
+        <v>1.032434312124948</v>
       </c>
       <c r="E10">
-        <v>0.9717880477166371</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.971838284303842</v>
+        <v>1.035514486582911</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031953853539431</v>
+        <v>1.055630392906861</v>
       </c>
       <c r="J10">
-        <v>0.9901531026736313</v>
+        <v>1.039483791478643</v>
       </c>
       <c r="K10">
-        <v>1.002331189985078</v>
+        <v>1.046241649271658</v>
       </c>
       <c r="L10">
-        <v>0.9866860708757407</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9867353301133112</v>
+        <v>1.049270815403996</v>
       </c>
       <c r="N10">
-        <v>0.9915592336515764</v>
+        <v>1.01665003464452</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9539715671869182</v>
+        <v>1.008266891416285</v>
       </c>
       <c r="D11">
-        <v>0.982934917612318</v>
+        <v>1.029793449416256</v>
       </c>
       <c r="E11">
-        <v>0.9659319413294303</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9654080799335401</v>
+        <v>1.032483025983281</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029818412877996</v>
+        <v>1.054267134315997</v>
       </c>
       <c r="J11">
-        <v>0.9853929768512458</v>
+        <v>1.037299756629086</v>
       </c>
       <c r="K11">
-        <v>0.9981859952475207</v>
+        <v>1.044174558170238</v>
       </c>
       <c r="L11">
-        <v>0.9815262578166555</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9810132251430767</v>
+        <v>1.046817301641078</v>
       </c>
       <c r="N11">
-        <v>0.9867923479045285</v>
+        <v>1.015911154034785</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9515792163897441</v>
+        <v>1.006965437780824</v>
       </c>
       <c r="D12">
-        <v>0.9811121573920668</v>
+        <v>1.028801234692516</v>
       </c>
       <c r="E12">
-        <v>0.9637113928639521</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9629692089352545</v>
+        <v>1.031344362271116</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029004454510946</v>
+        <v>1.053752806790128</v>
       </c>
       <c r="J12">
-        <v>0.9835842421514049</v>
+        <v>1.036477905497865</v>
       </c>
       <c r="K12">
-        <v>0.9966103910275913</v>
+        <v>1.043396695848144</v>
       </c>
       <c r="L12">
-        <v>0.9795684893674902</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9788419936129715</v>
+        <v>1.045894721907868</v>
       </c>
       <c r="N12">
-        <v>0.9849810445939495</v>
+        <v>1.015633112870121</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9520948769772873</v>
+        <v>1.007245337543154</v>
       </c>
       <c r="D13">
-        <v>0.9815049780074178</v>
+        <v>1.029014588098859</v>
       </c>
       <c r="E13">
-        <v>0.9641898383808939</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9634947246717009</v>
+        <v>1.03158919268245</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029180021791017</v>
+        <v>1.053863497374595</v>
       </c>
       <c r="J13">
-        <v>0.9839741271154904</v>
+        <v>1.036654683882686</v>
       </c>
       <c r="K13">
-        <v>0.9969500457594991</v>
+        <v>1.043564012917842</v>
       </c>
       <c r="L13">
-        <v>0.9799903718271564</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9793098812144987</v>
+        <v>1.046093136109317</v>
       </c>
       <c r="N13">
-        <v>0.9853714832394042</v>
+        <v>1.015692918870614</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9537749300102417</v>
+        <v>1.00815964218747</v>
       </c>
       <c r="D14">
-        <v>0.9827850677000572</v>
+        <v>1.029711666166063</v>
       </c>
       <c r="E14">
-        <v>0.9657493430306908</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9652075420019314</v>
+        <v>1.032389165566136</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029751565394158</v>
+        <v>1.054224784119381</v>
       </c>
       <c r="J14">
-        <v>0.9852443188203917</v>
+        <v>1.037232041581466</v>
       </c>
       <c r="K14">
-        <v>0.9980565082376968</v>
+        <v>1.044110467785863</v>
       </c>
       <c r="L14">
-        <v>0.981365293480933</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9808347127396237</v>
+        <v>1.046741273440581</v>
       </c>
       <c r="N14">
-        <v>0.9866434787622196</v>
+        <v>1.01588824528498</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.954802866316588</v>
+        <v>1.008720843186544</v>
       </c>
       <c r="D15">
-        <v>0.9835684777135252</v>
+        <v>1.030139646607074</v>
       </c>
       <c r="E15">
-        <v>0.9667040537493441</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>0.9662560234823655</v>
+        <v>1.032880359451893</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030100904485127</v>
+        <v>1.054446320459044</v>
       </c>
       <c r="J15">
-        <v>0.986021420732118</v>
+        <v>1.037586349591697</v>
       </c>
       <c r="K15">
-        <v>0.9987333736531816</v>
+        <v>1.044445809707381</v>
       </c>
       <c r="L15">
-        <v>0.9822068409901072</v>
+        <v>0.9494987508782939</v>
       </c>
       <c r="M15">
-        <v>0.9817679995446131</v>
+        <v>1.04713910627383</v>
       </c>
       <c r="N15">
-        <v>0.9874216842477953</v>
+        <v>1.016008111603194</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9606802148847222</v>
+        <v>1.011955393923869</v>
       </c>
       <c r="D16">
-        <v>0.988050359497097</v>
+        <v>1.032608027394557</v>
       </c>
       <c r="E16">
-        <v>0.9721706011126756</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="F16">
-        <v>0.9722582580238078</v>
+        <v>1.035713938351152</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032092766146104</v>
+        <v>1.055719771805748</v>
       </c>
       <c r="J16">
-        <v>0.9904635428591394</v>
+        <v>1.039627280889086</v>
       </c>
       <c r="K16">
-        <v>1.002601449751603</v>
+        <v>1.046377452574758</v>
       </c>
       <c r="L16">
-        <v>0.9870229678403746</v>
+        <v>0.9519451749175716</v>
       </c>
       <c r="M16">
-        <v>0.9871089262884091</v>
+        <v>1.049432102560222</v>
       </c>
       <c r="N16">
-        <v>0.9918701146977559</v>
+        <v>1.016698578144384</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9642781902845475</v>
+        <v>1.01395697509531</v>
       </c>
       <c r="D17">
-        <v>0.9907961417537909</v>
+        <v>1.034136894546876</v>
       </c>
       <c r="E17">
-        <v>0.9755238449794205</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.9759390791548691</v>
+        <v>1.037469552371402</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033307173355592</v>
+        <v>1.056504774807326</v>
       </c>
       <c r="J17">
-        <v>0.9931818632713093</v>
+        <v>1.040889174940273</v>
       </c>
       <c r="K17">
-        <v>1.004967495681165</v>
+        <v>1.047571732219449</v>
       </c>
       <c r="L17">
-        <v>0.989975085823855</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9903825590319959</v>
+        <v>1.050851022120297</v>
       </c>
       <c r="N17">
-        <v>0.9945922954367065</v>
+        <v>1.017125482143025</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9663464742514897</v>
+        <v>1.015114874531941</v>
       </c>
       <c r="D18">
-        <v>0.9923752057983301</v>
+        <v>1.035021814837034</v>
       </c>
       <c r="E18">
-        <v>0.9774538220526026</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>0.978057250273162</v>
+        <v>1.038485918008795</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034003437749959</v>
+        <v>1.056957788345858</v>
       </c>
       <c r="J18">
-        <v>0.9947440592230048</v>
+        <v>1.041618775172163</v>
       </c>
       <c r="K18">
-        <v>1.006326864004907</v>
+        <v>1.048262220521412</v>
       </c>
       <c r="L18">
-        <v>0.9916734216479454</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>0.9922658076590712</v>
+        <v>1.051671831650965</v>
       </c>
       <c r="N18">
-        <v>0.9961567098858402</v>
+        <v>1.017372304884122</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9670467020321643</v>
+        <v>1.015508087005474</v>
       </c>
       <c r="D19">
-        <v>0.9929099099113169</v>
+        <v>1.035322405748593</v>
       </c>
       <c r="E19">
-        <v>0.9781076238220126</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>0.9787747484003083</v>
+        <v>1.038831193211473</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034238846107695</v>
+        <v>1.057111438891752</v>
       </c>
       <c r="J19">
-        <v>0.9952728727568833</v>
+        <v>1.041866472531374</v>
       </c>
       <c r="K19">
-        <v>1.006786952884844</v>
+        <v>1.048496635976642</v>
       </c>
       <c r="L19">
-        <v>0.9922486217014304</v>
+        <v>0.9546352493816594</v>
       </c>
       <c r="M19">
-        <v>0.992903626598722</v>
+        <v>1.051950565426089</v>
       </c>
       <c r="N19">
-        <v>0.996686274395592</v>
+        <v>1.017456099719232</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9638953362410539</v>
+        <v>1.01374322224096</v>
       </c>
       <c r="D20">
-        <v>0.9905038974392883</v>
+        <v>1.033973573228285</v>
       </c>
       <c r="E20">
-        <v>0.9751667840958116</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9755471734329532</v>
+        <v>1.037281987898772</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033178140131977</v>
+        <v>1.056421057041108</v>
       </c>
       <c r="J20">
-        <v>0.9928926545344567</v>
+        <v>1.040754455510005</v>
       </c>
       <c r="K20">
-        <v>1.004715805173194</v>
+        <v>1.047444233146606</v>
       </c>
       <c r="L20">
-        <v>0.989660817942205</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9900340699368022</v>
+        <v>1.050699494996726</v>
       </c>
       <c r="N20">
-        <v>0.9943026759902749</v>
+        <v>1.017079906384518</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9532817066950546</v>
+        <v>1.007890848107603</v>
       </c>
       <c r="D21">
-        <v>0.9824092236869751</v>
+        <v>1.029506710186816</v>
       </c>
       <c r="E21">
-        <v>0.9652913983354497</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9647045954299028</v>
+        <v>1.032153948014036</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029583848518188</v>
+        <v>1.054118616553891</v>
       </c>
       <c r="J21">
-        <v>0.9848714335794901</v>
+        <v>1.037062321169041</v>
       </c>
       <c r="K21">
-        <v>0.9977317022456593</v>
+        <v>1.043949831963235</v>
       </c>
       <c r="L21">
-        <v>0.9809615853424696</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9803869910576558</v>
+        <v>1.046550727931717</v>
       </c>
       <c r="N21">
-        <v>0.9862700639815054</v>
+        <v>1.015830826996462</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9462983136812092</v>
+        <v>1.004118826438411</v>
       </c>
       <c r="D22">
-        <v>0.9770914783565725</v>
+        <v>1.026632639911528</v>
       </c>
       <c r="E22">
-        <v>0.958817351302746</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9575927296977114</v>
+        <v>1.028856231872032</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027202788759421</v>
+        <v>1.052624783460143</v>
       </c>
       <c r="J22">
-        <v>0.9795908698564282</v>
+        <v>1.034679298421672</v>
       </c>
       <c r="K22">
-        <v>0.9931308399089723</v>
+        <v>1.041694339206985</v>
       </c>
       <c r="L22">
-        <v>0.9752513036350289</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9740538420084136</v>
+        <v>1.043876925912008</v>
       </c>
       <c r="N22">
-        <v>0.9809820012522674</v>
+        <v>1.015024628823636</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9500316975028906</v>
+        <v>1.006127509901484</v>
       </c>
       <c r="D23">
-        <v>0.9799335129387338</v>
+        <v>1.028162653927862</v>
       </c>
       <c r="E23">
-        <v>0.9622761603741795</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9613926770061795</v>
+        <v>1.030611612346105</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028477177074409</v>
+        <v>1.053421191345657</v>
       </c>
       <c r="J23">
-        <v>0.982414119621915</v>
+        <v>1.035948608210129</v>
       </c>
       <c r="K23">
-        <v>0.995590947892763</v>
+        <v>1.042895725365319</v>
       </c>
       <c r="L23">
-        <v>0.9783027507830004</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9774382104736151</v>
+        <v>1.045300743968997</v>
       </c>
       <c r="N23">
-        <v>0.9838092603562526</v>
+        <v>1.015454046271637</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.964068424924005</v>
+        <v>1.013839837524776</v>
       </c>
       <c r="D24">
-        <v>0.9906360193436194</v>
+        <v>1.034047392205063</v>
       </c>
       <c r="E24">
-        <v>0.97532820429033</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9757243473589422</v>
+        <v>1.037366763816992</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033236481889295</v>
+        <v>1.056458900506879</v>
       </c>
       <c r="J24">
-        <v>0.9930234074048438</v>
+        <v>1.040815349289198</v>
       </c>
       <c r="K24">
-        <v>1.004829597026678</v>
+        <v>1.047501863351191</v>
       </c>
       <c r="L24">
-        <v>0.9898028946590627</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9901916178132694</v>
+        <v>1.050767984624064</v>
       </c>
       <c r="N24">
-        <v>0.9944336145447356</v>
+        <v>1.017100506842171</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9791788397312207</v>
+        <v>1.022415957778569</v>
       </c>
       <c r="D25">
-        <v>1.002181552504031</v>
+        <v>1.040609585891316</v>
       </c>
       <c r="E25">
-        <v>0.9894685160771983</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9912380100542069</v>
+        <v>1.044907425513421</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038289756216661</v>
+        <v>1.059794138191279</v>
       </c>
       <c r="J25">
-        <v>1.004427826912902</v>
+        <v>1.046211788393173</v>
       </c>
       <c r="K25">
-        <v>1.014746096813351</v>
+        <v>1.052608579863594</v>
       </c>
       <c r="L25">
-        <v>1.002232549814686</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.003973884706788</v>
+        <v>1.056846431439955</v>
       </c>
       <c r="N25">
-        <v>1.0058542296366</v>
+        <v>1.018925996439124</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.028983475763522</v>
+        <v>1.048516231170885</v>
       </c>
       <c r="D2">
-        <v>1.045647222926426</v>
+        <v>1.054504249412253</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.050702959424547</v>
+        <v>1.063793041996202</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062312439135738</v>
+        <v>1.049377877516245</v>
       </c>
       <c r="J2">
-        <v>1.050330553274972</v>
+        <v>1.053559568181004</v>
       </c>
       <c r="K2">
-        <v>1.056505242690651</v>
+        <v>1.057247277639582</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.061498380890274</v>
+        <v>1.066510721681059</v>
       </c>
       <c r="N2">
-        <v>1.020318969848323</v>
+        <v>1.021675942880561</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.033606643167227</v>
+        <v>1.049470934283593</v>
       </c>
       <c r="D3">
-        <v>1.049199538583194</v>
+        <v>1.055254880335033</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.054793841243645</v>
+        <v>1.064682443636207</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064063696634278</v>
+        <v>1.049672388602259</v>
       </c>
       <c r="J3">
-        <v>1.053221274164343</v>
+        <v>1.05416315428555</v>
       </c>
       <c r="K3">
-        <v>1.059239347070838</v>
+        <v>1.057811324965967</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.064770530281784</v>
+        <v>1.067215016665882</v>
       </c>
       <c r="N3">
-        <v>1.0212963561436</v>
+        <v>1.021878645219127</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.036534708427814</v>
+        <v>1.050088851454443</v>
       </c>
       <c r="D4">
-        <v>1.051451882950355</v>
+        <v>1.055740722588432</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.057389648820617</v>
+        <v>1.065258404372407</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065162652950612</v>
+        <v>1.049861751975445</v>
       </c>
       <c r="J4">
-        <v>1.055047875175628</v>
+        <v>1.054553239534588</v>
       </c>
       <c r="K4">
-        <v>1.060966589812544</v>
+        <v>1.058175769136097</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.066841466098132</v>
+        <v>1.06767056180101</v>
       </c>
       <c r="N4">
-        <v>1.021913804181287</v>
+        <v>1.022009590913069</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.037751019392781</v>
+        <v>1.050348661478598</v>
       </c>
       <c r="D5">
-        <v>1.052388054911306</v>
+        <v>1.055945001556694</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.05846906631087</v>
+        <v>1.065500646798244</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065616672767861</v>
+        <v>1.049941071346421</v>
       </c>
       <c r="J5">
-        <v>1.055805594938842</v>
+        <v>1.054717116795602</v>
       </c>
       <c r="K5">
-        <v>1.061682990704849</v>
+        <v>1.058328853232621</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.067701335334329</v>
+        <v>1.067862028692796</v>
       </c>
       <c r="N5">
-        <v>1.022169897907989</v>
+        <v>1.022064588389432</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.037954399549858</v>
+        <v>1.050392286910435</v>
       </c>
       <c r="D6">
-        <v>1.052544624093375</v>
+        <v>1.055979302671706</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.058649621417832</v>
+        <v>1.065541326696668</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.065692442618191</v>
+        <v>1.049954372456353</v>
       </c>
       <c r="J6">
-        <v>1.055932231373856</v>
+        <v>1.054744625767131</v>
       </c>
       <c r="K6">
-        <v>1.061802715329547</v>
+        <v>1.058354549182261</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.067845090425775</v>
+        <v>1.067894174200705</v>
       </c>
       <c r="N6">
-        <v>1.022212696008772</v>
+        <v>1.022073819643717</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.036551017696741</v>
+        <v>1.050092322901721</v>
       </c>
       <c r="D7">
-        <v>1.051464433763104</v>
+        <v>1.055743452054103</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.057404118118756</v>
+        <v>1.065261640802616</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065168750673931</v>
+        <v>1.049862812980939</v>
       </c>
       <c r="J7">
-        <v>1.055058039460456</v>
+        <v>1.054555429721763</v>
       </c>
       <c r="K7">
-        <v>1.060976200249154</v>
+        <v>1.058177815158194</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.066852997513845</v>
+        <v>1.067673120366238</v>
       </c>
       <c r="N7">
-        <v>1.021917239660827</v>
+        <v>1.022010325997128</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.030559364182656</v>
+        <v>1.048838843885407</v>
       </c>
       <c r="D8">
-        <v>1.046857539705992</v>
+        <v>1.054757900235131</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.0520963626094</v>
+        <v>1.064093523802033</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062911502367228</v>
+        <v>1.049477658109536</v>
       </c>
       <c r="J8">
-        <v>1.051316773647519</v>
+        <v>1.053763650877621</v>
       </c>
       <c r="K8">
-        <v>1.05743810866716</v>
+        <v>1.057438009763721</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.062614033790308</v>
+        <v>1.06674877830924</v>
       </c>
       <c r="N8">
-        <v>1.02065245089848</v>
+        <v>1.021744491675213</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.01948981099355</v>
+        <v>1.046631315627512</v>
       </c>
       <c r="D9">
-        <v>1.038368479569161</v>
+        <v>1.053022308199548</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.042331120543527</v>
+        <v>1.062038716486958</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058661713279037</v>
+        <v>1.048789759802799</v>
       </c>
       <c r="J9">
-        <v>1.044372620253128</v>
+        <v>1.05236482949684</v>
       </c>
       <c r="K9">
-        <v>1.050868282408999</v>
+        <v>1.056130338910597</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.054772808806268</v>
+        <v>1.065118628480412</v>
       </c>
       <c r="N9">
-        <v>1.018303886164759</v>
+        <v>1.021274415186583</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.011727879015203</v>
+        <v>1.045160521617357</v>
       </c>
       <c r="D10">
-        <v>1.032434312124948</v>
+        <v>1.051866038157421</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.035514486582911</v>
+        <v>1.060671311819824</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055630392906861</v>
+        <v>1.048325000910657</v>
       </c>
       <c r="J10">
-        <v>1.039483791478643</v>
+        <v>1.05142990286524</v>
       </c>
       <c r="K10">
-        <v>1.046241649271658</v>
+        <v>1.055255890820183</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.049270815403996</v>
+        <v>1.064031018208086</v>
       </c>
       <c r="N10">
-        <v>1.01665003464452</v>
+        <v>1.020959945010322</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.008266891416285</v>
+        <v>1.044523871492465</v>
       </c>
       <c r="D11">
-        <v>1.029793449416256</v>
+        <v>1.051365562099962</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.032483025983281</v>
+        <v>1.060079810103435</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054267134315997</v>
+        <v>1.048122300114068</v>
       </c>
       <c r="J11">
-        <v>1.037299756629086</v>
+        <v>1.051024514217649</v>
       </c>
       <c r="K11">
-        <v>1.044174558170238</v>
+        <v>1.054876622271191</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.046817301641078</v>
+        <v>1.063559882672446</v>
       </c>
       <c r="N11">
-        <v>1.015911154034785</v>
+        <v>1.020823522170649</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.006965437780824</v>
+        <v>1.044287423954133</v>
       </c>
       <c r="D12">
-        <v>1.028801234692516</v>
+        <v>1.051179693613923</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.031344362271116</v>
+        <v>1.059860190322985</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053752806790128</v>
+        <v>1.048046789533899</v>
       </c>
       <c r="J12">
-        <v>1.036477905497865</v>
+        <v>1.050873851490381</v>
       </c>
       <c r="K12">
-        <v>1.043396695848144</v>
+        <v>1.054735651625772</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.045894721907868</v>
+        <v>1.063384853849577</v>
       </c>
       <c r="N12">
-        <v>1.015633112870121</v>
+        <v>1.020772810602294</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.007245337543154</v>
+        <v>1.044338141265833</v>
       </c>
       <c r="D13">
-        <v>1.029014588098859</v>
+        <v>1.051219561632788</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.03158919268245</v>
+        <v>1.059907295407411</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053863497374595</v>
+        <v>1.04806299668926</v>
       </c>
       <c r="J13">
-        <v>1.036654683882686</v>
+        <v>1.050906172916805</v>
       </c>
       <c r="K13">
-        <v>1.043564012917842</v>
+        <v>1.054765894523236</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.046093136109317</v>
+        <v>1.06342239938363</v>
       </c>
       <c r="N13">
-        <v>1.015692918870614</v>
+        <v>1.020783690123166</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.00815964218747</v>
+        <v>1.044504325995315</v>
       </c>
       <c r="D14">
-        <v>1.029711666166063</v>
+        <v>1.051350197522322</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.032389165566136</v>
+        <v>1.060061654415416</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054224784119381</v>
+        <v>1.048116062840321</v>
       </c>
       <c r="J14">
-        <v>1.037232041581466</v>
+        <v>1.051012062085618</v>
       </c>
       <c r="K14">
-        <v>1.044110467785863</v>
+        <v>1.05486497149509</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.046741273440581</v>
+        <v>1.063545415303498</v>
       </c>
       <c r="N14">
-        <v>1.01588824528498</v>
+        <v>1.020819331111172</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.008720843186544</v>
+        <v>1.044606722238537</v>
       </c>
       <c r="D15">
-        <v>1.030139646607074</v>
+        <v>1.051430690693288</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.032880359451893</v>
+        <v>1.0601567720931</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054446320459044</v>
+        <v>1.048148729709933</v>
       </c>
       <c r="J15">
-        <v>1.037586349591697</v>
+        <v>1.051077292875354</v>
       </c>
       <c r="K15">
-        <v>1.044445809707381</v>
+        <v>1.054926003730672</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.04713910627383</v>
+        <v>1.063621205774309</v>
       </c>
       <c r="N15">
-        <v>1.016008111603194</v>
+        <v>1.020841285666555</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.011955393923869</v>
+        <v>1.045202778536858</v>
       </c>
       <c r="D16">
-        <v>1.032608027394557</v>
+        <v>1.051899257337632</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.035713938351152</v>
+        <v>1.060710580441477</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055719771805748</v>
+        <v>1.048338422832271</v>
       </c>
       <c r="J16">
-        <v>1.039627280889086</v>
+        <v>1.051456795450595</v>
       </c>
       <c r="K16">
-        <v>1.046377452574758</v>
+        <v>1.055281048483135</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.049432102560222</v>
+        <v>1.064062281930575</v>
       </c>
       <c r="N16">
-        <v>1.016698578144384</v>
+        <v>1.020968993593009</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.01395697509531</v>
+        <v>1.045576726461894</v>
       </c>
       <c r="D17">
-        <v>1.034136894546876</v>
+        <v>1.052193230188446</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.037469552371402</v>
+        <v>1.061058129484109</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056504774807326</v>
+        <v>1.048457022510265</v>
       </c>
       <c r="J17">
-        <v>1.040889174940273</v>
+        <v>1.051694698148279</v>
       </c>
       <c r="K17">
-        <v>1.047571732219449</v>
+        <v>1.055503591400877</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.050851022120297</v>
+        <v>1.064338906288127</v>
       </c>
       <c r="N17">
-        <v>1.017125482143025</v>
+        <v>1.021049033284879</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.015114874531941</v>
+        <v>1.045794864507878</v>
       </c>
       <c r="D18">
-        <v>1.035021814837034</v>
+        <v>1.052364718465642</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.038485918008795</v>
+        <v>1.061260906152207</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056957788345858</v>
+        <v>1.048526059074579</v>
       </c>
       <c r="J18">
-        <v>1.041618775172163</v>
+        <v>1.05183340876158</v>
       </c>
       <c r="K18">
-        <v>1.048262220521412</v>
+        <v>1.055633336397007</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.051671831650965</v>
+        <v>1.064500237902724</v>
       </c>
       <c r="N18">
-        <v>1.017372304884122</v>
+        <v>1.021095694442807</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.015508087005474</v>
+        <v>1.045869247411269</v>
       </c>
       <c r="D19">
-        <v>1.035322405748593</v>
+        <v>1.052423194707079</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.038831193211473</v>
+        <v>1.061330057422325</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057111438891752</v>
+        <v>1.048549574893822</v>
       </c>
       <c r="J19">
-        <v>1.041866472531374</v>
+        <v>1.051880696314992</v>
       </c>
       <c r="K19">
-        <v>1.048496635976642</v>
+        <v>1.055677565799461</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.051950565426089</v>
+        <v>1.064555244615913</v>
       </c>
       <c r="N19">
-        <v>1.017456099719232</v>
+        <v>1.021111600503719</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.01374322224096</v>
+        <v>1.045536603258728</v>
       </c>
       <c r="D20">
-        <v>1.033973573228285</v>
+        <v>1.052161687722258</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.037281987898772</v>
+        <v>1.061020834837259</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056421057041108</v>
+        <v>1.048444312429164</v>
       </c>
       <c r="J20">
-        <v>1.040754455510005</v>
+        <v>1.051669179021322</v>
       </c>
       <c r="K20">
-        <v>1.047444233146606</v>
+        <v>1.055479720906665</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.050699494996726</v>
+        <v>1.064309229039442</v>
       </c>
       <c r="N20">
-        <v>1.017079906384518</v>
+        <v>1.02104044833</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.007890848107603</v>
+        <v>1.044455387827935</v>
       </c>
       <c r="D21">
-        <v>1.029506710186816</v>
+        <v>1.051311727655316</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.032153948014036</v>
+        <v>1.060016197033295</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054118616553891</v>
+        <v>1.048100442209038</v>
       </c>
       <c r="J21">
-        <v>1.037062321169041</v>
+        <v>1.050980882659517</v>
       </c>
       <c r="K21">
-        <v>1.043949831963235</v>
+        <v>1.054835798369168</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.046550727931717</v>
+        <v>1.063509190949828</v>
       </c>
       <c r="N21">
-        <v>1.015830826996462</v>
+        <v>1.020808836776642</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.004118826438411</v>
+        <v>1.043775774064637</v>
       </c>
       <c r="D22">
-        <v>1.026632639911528</v>
+        <v>1.050777501635151</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.028856231872032</v>
+        <v>1.059385064338646</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052624783460143</v>
+        <v>1.047882973519066</v>
       </c>
       <c r="J22">
-        <v>1.034679298421672</v>
+        <v>1.050547641616405</v>
       </c>
       <c r="K22">
-        <v>1.041694339206985</v>
+        <v>1.054430398585132</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.043876925912008</v>
+        <v>1.063006013075563</v>
       </c>
       <c r="N22">
-        <v>1.015024628823636</v>
+        <v>1.020662993387984</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.006127509901484</v>
+        <v>1.044136032033518</v>
       </c>
       <c r="D23">
-        <v>1.028162653927862</v>
+        <v>1.051060687759696</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.030611612346105</v>
+        <v>1.059719589775516</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053421191345657</v>
+        <v>1.047998377436456</v>
       </c>
       <c r="J23">
-        <v>1.035948608210129</v>
+        <v>1.050777356330286</v>
       </c>
       <c r="K23">
-        <v>1.042895725365319</v>
+        <v>1.054645359630589</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.045300743968997</v>
+        <v>1.063272772257145</v>
       </c>
       <c r="N23">
-        <v>1.015454046271637</v>
+        <v>1.020740328486849</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.013839837524776</v>
+        <v>1.045554733143653</v>
       </c>
       <c r="D24">
-        <v>1.034047392205063</v>
+        <v>1.05217594034673</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.037366763816992</v>
+        <v>1.061037686506214</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056458900506879</v>
+        <v>1.048450056002225</v>
       </c>
       <c r="J24">
-        <v>1.040815349289198</v>
+        <v>1.051680710183232</v>
       </c>
       <c r="K24">
-        <v>1.047501863351191</v>
+        <v>1.055490507142553</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.050767984624064</v>
+        <v>1.064322638968497</v>
       </c>
       <c r="N24">
-        <v>1.017100506842171</v>
+        <v>1.021044327577727</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.022415957778569</v>
+        <v>1.047201860624571</v>
       </c>
       <c r="D25">
-        <v>1.040609585891316</v>
+        <v>1.053470865821461</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.044907425513421</v>
+        <v>1.062569503792302</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059794138191279</v>
+        <v>1.048968685929499</v>
       </c>
       <c r="J25">
-        <v>1.046211788393173</v>
+        <v>1.052726880997417</v>
       </c>
       <c r="K25">
-        <v>1.052608579863594</v>
+        <v>1.056468876869545</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.056846431439955</v>
+        <v>1.065540214235128</v>
       </c>
       <c r="N25">
-        <v>1.018925996439124</v>
+        <v>1.021396133964533</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.048516231170885</v>
+        <v>1.028983475763522</v>
       </c>
       <c r="D2">
-        <v>1.054504249412253</v>
+        <v>1.045647222926426</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.063793041996202</v>
+        <v>1.050702959424547</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049377877516245</v>
+        <v>1.062312439135738</v>
       </c>
       <c r="J2">
-        <v>1.053559568181004</v>
+        <v>1.050330553274972</v>
       </c>
       <c r="K2">
-        <v>1.057247277639582</v>
+        <v>1.056505242690651</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.066510721681059</v>
+        <v>1.061498380890274</v>
       </c>
       <c r="N2">
-        <v>1.021675942880561</v>
+        <v>1.020318969848323</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049470934283593</v>
+        <v>1.033606643167227</v>
       </c>
       <c r="D3">
-        <v>1.055254880335033</v>
+        <v>1.049199538583194</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.064682443636207</v>
+        <v>1.054793841243646</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049672388602259</v>
+        <v>1.064063696634278</v>
       </c>
       <c r="J3">
-        <v>1.05416315428555</v>
+        <v>1.053221274164343</v>
       </c>
       <c r="K3">
-        <v>1.057811324965967</v>
+        <v>1.059239347070838</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.067215016665882</v>
+        <v>1.064770530281784</v>
       </c>
       <c r="N3">
-        <v>1.021878645219127</v>
+        <v>1.0212963561436</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050088851454443</v>
+        <v>1.036534708427813</v>
       </c>
       <c r="D4">
-        <v>1.055740722588432</v>
+        <v>1.051451882950355</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.065258404372407</v>
+        <v>1.057389648820617</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049861751975445</v>
+        <v>1.065162652950612</v>
       </c>
       <c r="J4">
-        <v>1.054553239534588</v>
+        <v>1.055047875175628</v>
       </c>
       <c r="K4">
-        <v>1.058175769136097</v>
+        <v>1.060966589812545</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.06767056180101</v>
+        <v>1.066841466098132</v>
       </c>
       <c r="N4">
-        <v>1.022009590913069</v>
+        <v>1.021913804181287</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050348661478598</v>
+        <v>1.03775101939278</v>
       </c>
       <c r="D5">
-        <v>1.055945001556694</v>
+        <v>1.052388054911305</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.065500646798244</v>
+        <v>1.058469066310868</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049941071346421</v>
+        <v>1.06561667276786</v>
       </c>
       <c r="J5">
-        <v>1.054717116795602</v>
+        <v>1.055805594938841</v>
       </c>
       <c r="K5">
-        <v>1.058328853232621</v>
+        <v>1.061682990704848</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.067862028692796</v>
+        <v>1.067701335334328</v>
       </c>
       <c r="N5">
-        <v>1.022064588389432</v>
+        <v>1.022169897907989</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050392286910435</v>
+        <v>1.037954399549857</v>
       </c>
       <c r="D6">
-        <v>1.055979302671706</v>
+        <v>1.052544624093375</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.065541326696668</v>
+        <v>1.058649621417832</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049954372456353</v>
+        <v>1.06569244261819</v>
       </c>
       <c r="J6">
-        <v>1.054744625767131</v>
+        <v>1.055932231373856</v>
       </c>
       <c r="K6">
-        <v>1.058354549182261</v>
+        <v>1.061802715329547</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.067894174200705</v>
+        <v>1.067845090425775</v>
       </c>
       <c r="N6">
-        <v>1.022073819643717</v>
+        <v>1.022212696008772</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050092322901721</v>
+        <v>1.036551017696743</v>
       </c>
       <c r="D7">
-        <v>1.055743452054103</v>
+        <v>1.051464433763106</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.065261640802616</v>
+        <v>1.057404118118758</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049862812980939</v>
+        <v>1.065168750673932</v>
       </c>
       <c r="J7">
-        <v>1.054555429721763</v>
+        <v>1.055058039460458</v>
       </c>
       <c r="K7">
-        <v>1.058177815158194</v>
+        <v>1.060976200249156</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.067673120366238</v>
+        <v>1.066852997513847</v>
       </c>
       <c r="N7">
-        <v>1.022010325997128</v>
+        <v>1.021917239660828</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.048838843885407</v>
+        <v>1.030559364182655</v>
       </c>
       <c r="D8">
-        <v>1.054757900235131</v>
+        <v>1.046857539705991</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.064093523802033</v>
+        <v>1.052096362609399</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049477658109536</v>
+        <v>1.062911502367228</v>
       </c>
       <c r="J8">
-        <v>1.053763650877621</v>
+        <v>1.051316773647518</v>
       </c>
       <c r="K8">
-        <v>1.057438009763721</v>
+        <v>1.057438108667159</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.06674877830924</v>
+        <v>1.062614033790307</v>
       </c>
       <c r="N8">
-        <v>1.021744491675213</v>
+        <v>1.02065245089848</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.046631315627512</v>
+        <v>1.019489810993551</v>
       </c>
       <c r="D9">
-        <v>1.053022308199548</v>
+        <v>1.038368479569161</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.062038716486958</v>
+        <v>1.042331120543527</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048789759802799</v>
+        <v>1.058661713279037</v>
       </c>
       <c r="J9">
-        <v>1.05236482949684</v>
+        <v>1.044372620253128</v>
       </c>
       <c r="K9">
-        <v>1.056130338910597</v>
+        <v>1.050868282408999</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.065118628480412</v>
+        <v>1.054772808806268</v>
       </c>
       <c r="N9">
-        <v>1.021274415186583</v>
+        <v>1.018303886164759</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.045160521617357</v>
+        <v>1.011727879015203</v>
       </c>
       <c r="D10">
-        <v>1.051866038157421</v>
+        <v>1.032434312124949</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.060671311819824</v>
+        <v>1.035514486582912</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048325000910657</v>
+        <v>1.055630392906862</v>
       </c>
       <c r="J10">
-        <v>1.05142990286524</v>
+        <v>1.039483791478644</v>
       </c>
       <c r="K10">
-        <v>1.055255890820183</v>
+        <v>1.046241649271658</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.064031018208086</v>
+        <v>1.049270815403997</v>
       </c>
       <c r="N10">
-        <v>1.020959945010322</v>
+        <v>1.01665003464452</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.044523871492465</v>
+        <v>1.008266891416285</v>
       </c>
       <c r="D11">
-        <v>1.051365562099962</v>
+        <v>1.029793449416256</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.060079810103435</v>
+        <v>1.032483025983281</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048122300114068</v>
+        <v>1.054267134315997</v>
       </c>
       <c r="J11">
-        <v>1.051024514217649</v>
+        <v>1.037299756629087</v>
       </c>
       <c r="K11">
-        <v>1.054876622271191</v>
+        <v>1.044174558170238</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.063559882672446</v>
+        <v>1.046817301641079</v>
       </c>
       <c r="N11">
-        <v>1.020823522170649</v>
+        <v>1.015911154034785</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.044287423954133</v>
+        <v>1.006965437780823</v>
       </c>
       <c r="D12">
-        <v>1.051179693613923</v>
+        <v>1.028801234692516</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.059860190322985</v>
+        <v>1.031344362271115</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048046789533899</v>
+        <v>1.053752806790128</v>
       </c>
       <c r="J12">
-        <v>1.050873851490381</v>
+        <v>1.036477905497864</v>
       </c>
       <c r="K12">
-        <v>1.054735651625772</v>
+        <v>1.043396695848143</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.063384853849577</v>
+        <v>1.045894721907867</v>
       </c>
       <c r="N12">
-        <v>1.020772810602294</v>
+        <v>1.015633112870121</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.044338141265833</v>
+        <v>1.007245337543153</v>
       </c>
       <c r="D13">
-        <v>1.051219561632788</v>
+        <v>1.029014588098858</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.059907295407411</v>
+        <v>1.031589192682449</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04806299668926</v>
+        <v>1.053863497374594</v>
       </c>
       <c r="J13">
-        <v>1.050906172916805</v>
+        <v>1.036654683882685</v>
       </c>
       <c r="K13">
-        <v>1.054765894523236</v>
+        <v>1.043564012917841</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.06342239938363</v>
+        <v>1.046093136109316</v>
       </c>
       <c r="N13">
-        <v>1.020783690123166</v>
+        <v>1.015692918870614</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.044504325995315</v>
+        <v>1.008159642187468</v>
       </c>
       <c r="D14">
-        <v>1.051350197522322</v>
+        <v>1.029711666166061</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.060061654415416</v>
+        <v>1.032389165566135</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048116062840321</v>
+        <v>1.05422478411938</v>
       </c>
       <c r="J14">
-        <v>1.051012062085618</v>
+        <v>1.037232041581464</v>
       </c>
       <c r="K14">
-        <v>1.05486497149509</v>
+        <v>1.044110467785861</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.063545415303498</v>
+        <v>1.04674127344058</v>
       </c>
       <c r="N14">
-        <v>1.020819331111172</v>
+        <v>1.015888245284979</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.044606722238537</v>
+        <v>1.008720843186547</v>
       </c>
       <c r="D15">
-        <v>1.051430690693288</v>
+        <v>1.030139646607077</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.0601567720931</v>
+        <v>1.032880359451896</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048148729709933</v>
+        <v>1.054446320459046</v>
       </c>
       <c r="J15">
-        <v>1.051077292875354</v>
+        <v>1.0375863495917</v>
       </c>
       <c r="K15">
-        <v>1.054926003730672</v>
+        <v>1.044445809707383</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.063621205774309</v>
+        <v>1.047139106273832</v>
       </c>
       <c r="N15">
-        <v>1.020841285666555</v>
+        <v>1.016008111603195</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.045202778536858</v>
+        <v>1.011955393923868</v>
       </c>
       <c r="D16">
-        <v>1.051899257337632</v>
+        <v>1.032608027394556</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.060710580441477</v>
+        <v>1.035713938351151</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048338422832271</v>
+        <v>1.055719771805747</v>
       </c>
       <c r="J16">
-        <v>1.051456795450595</v>
+        <v>1.039627280889086</v>
       </c>
       <c r="K16">
-        <v>1.055281048483135</v>
+        <v>1.046377452574757</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.064062281930575</v>
+        <v>1.049432102560221</v>
       </c>
       <c r="N16">
-        <v>1.020968993593009</v>
+        <v>1.016698578144384</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.045576726461894</v>
+        <v>1.01395697509531</v>
       </c>
       <c r="D17">
-        <v>1.052193230188446</v>
+        <v>1.034136894546876</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.061058129484109</v>
+        <v>1.037469552371402</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048457022510265</v>
+        <v>1.056504774807325</v>
       </c>
       <c r="J17">
-        <v>1.051694698148279</v>
+        <v>1.040889174940273</v>
       </c>
       <c r="K17">
-        <v>1.055503591400877</v>
+        <v>1.047571732219449</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.064338906288127</v>
+        <v>1.050851022120297</v>
       </c>
       <c r="N17">
-        <v>1.021049033284879</v>
+        <v>1.017125482143025</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.045794864507878</v>
+        <v>1.01511487453194</v>
       </c>
       <c r="D18">
-        <v>1.052364718465642</v>
+        <v>1.035021814837034</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.061260906152207</v>
+        <v>1.038485918008795</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048526059074579</v>
+        <v>1.056957788345858</v>
       </c>
       <c r="J18">
-        <v>1.05183340876158</v>
+        <v>1.041618775172163</v>
       </c>
       <c r="K18">
-        <v>1.055633336397007</v>
+        <v>1.048262220521411</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.064500237902724</v>
+        <v>1.051671831650966</v>
       </c>
       <c r="N18">
-        <v>1.021095694442807</v>
+        <v>1.017372304884122</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.045869247411269</v>
+        <v>1.015508087005474</v>
       </c>
       <c r="D19">
-        <v>1.052423194707079</v>
+        <v>1.035322405748594</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.061330057422325</v>
+        <v>1.038831193211474</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048549574893822</v>
+        <v>1.057111438891753</v>
       </c>
       <c r="J19">
-        <v>1.051880696314992</v>
+        <v>1.041866472531375</v>
       </c>
       <c r="K19">
-        <v>1.055677565799461</v>
+        <v>1.048496635976642</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.064555244615913</v>
+        <v>1.05195056542609</v>
       </c>
       <c r="N19">
-        <v>1.021111600503719</v>
+        <v>1.017456099719232</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.045536603258728</v>
+        <v>1.013743222240959</v>
       </c>
       <c r="D20">
-        <v>1.052161687722258</v>
+        <v>1.033973573228284</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.061020834837259</v>
+        <v>1.037281987898772</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048444312429164</v>
+        <v>1.056421057041107</v>
       </c>
       <c r="J20">
-        <v>1.051669179021322</v>
+        <v>1.040754455510005</v>
       </c>
       <c r="K20">
-        <v>1.055479720906665</v>
+        <v>1.047444233146606</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.064309229039442</v>
+        <v>1.050699494996725</v>
       </c>
       <c r="N20">
-        <v>1.02104044833</v>
+        <v>1.017079906384518</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.044455387827935</v>
+        <v>1.007890848107605</v>
       </c>
       <c r="D21">
-        <v>1.051311727655316</v>
+        <v>1.029506710186818</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.060016197033295</v>
+        <v>1.032153948014038</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048100442209038</v>
+        <v>1.054118616553893</v>
       </c>
       <c r="J21">
-        <v>1.050980882659517</v>
+        <v>1.037062321169043</v>
       </c>
       <c r="K21">
-        <v>1.054835798369168</v>
+        <v>1.043949831963237</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.063509190949828</v>
+        <v>1.046550727931719</v>
       </c>
       <c r="N21">
-        <v>1.020808836776642</v>
+        <v>1.015830826996462</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.043775774064637</v>
+        <v>1.004118826438411</v>
       </c>
       <c r="D22">
-        <v>1.050777501635151</v>
+        <v>1.026632639911528</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.059385064338646</v>
+        <v>1.028856231872032</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047882973519066</v>
+        <v>1.052624783460142</v>
       </c>
       <c r="J22">
-        <v>1.050547641616405</v>
+        <v>1.034679298421671</v>
       </c>
       <c r="K22">
-        <v>1.054430398585132</v>
+        <v>1.041694339206984</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.063006013075563</v>
+        <v>1.043876925912007</v>
       </c>
       <c r="N22">
-        <v>1.020662993387984</v>
+        <v>1.015024628823636</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.044136032033518</v>
+        <v>1.006127509901483</v>
       </c>
       <c r="D23">
-        <v>1.051060687759696</v>
+        <v>1.028162653927861</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.059719589775516</v>
+        <v>1.030611612346104</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047998377436456</v>
+        <v>1.053421191345657</v>
       </c>
       <c r="J23">
-        <v>1.050777356330286</v>
+        <v>1.035948608210129</v>
       </c>
       <c r="K23">
-        <v>1.054645359630589</v>
+        <v>1.042895725365319</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.063272772257145</v>
+        <v>1.045300743968996</v>
       </c>
       <c r="N23">
-        <v>1.020740328486849</v>
+        <v>1.015454046271637</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045554733143653</v>
+        <v>1.013839837524776</v>
       </c>
       <c r="D24">
-        <v>1.05217594034673</v>
+        <v>1.034047392205062</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.061037686506214</v>
+        <v>1.037366763816992</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048450056002225</v>
+        <v>1.056458900506879</v>
       </c>
       <c r="J24">
-        <v>1.051680710183232</v>
+        <v>1.040815349289198</v>
       </c>
       <c r="K24">
-        <v>1.055490507142553</v>
+        <v>1.047501863351191</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.064322638968497</v>
+        <v>1.050767984624063</v>
       </c>
       <c r="N24">
-        <v>1.021044327577727</v>
+        <v>1.017100506842171</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.047201860624571</v>
+        <v>1.022415957778567</v>
       </c>
       <c r="D25">
-        <v>1.053470865821461</v>
+        <v>1.040609585891314</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.062569503792302</v>
+        <v>1.044907425513419</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048968685929499</v>
+        <v>1.059794138191277</v>
       </c>
       <c r="J25">
-        <v>1.052726880997417</v>
+        <v>1.046211788393172</v>
       </c>
       <c r="K25">
-        <v>1.056468876869545</v>
+        <v>1.052608579863593</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.065540214235128</v>
+        <v>1.056846431439954</v>
       </c>
       <c r="N25">
-        <v>1.021396133964533</v>
+        <v>1.018925996439124</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028983475763522</v>
+        <v>0.9951826075308776</v>
       </c>
       <c r="D2">
-        <v>1.045647222926426</v>
+        <v>1.017378177097416</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>1.017149108140917</v>
       </c>
       <c r="F2">
-        <v>1.050702959424547</v>
+        <v>1.023831691247882</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062312439135738</v>
+        <v>1.04533570645455</v>
       </c>
       <c r="J2">
-        <v>1.050330553274972</v>
+        <v>1.017508366938046</v>
       </c>
       <c r="K2">
-        <v>1.056505242690651</v>
+        <v>1.028600601020593</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>1.028374588755743</v>
       </c>
       <c r="M2">
-        <v>1.061498380890274</v>
+        <v>1.034968704232381</v>
       </c>
       <c r="N2">
-        <v>1.020318969848323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.009929601854914</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.036247761530686</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.031293253320808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033606643167227</v>
+        <v>0.9987139308204559</v>
       </c>
       <c r="D3">
-        <v>1.049199538583194</v>
+        <v>1.019696584262736</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>1.020650685147236</v>
       </c>
       <c r="F3">
-        <v>1.054793841243646</v>
+        <v>1.027078267922061</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064063696634278</v>
+        <v>1.046015209464048</v>
       </c>
       <c r="J3">
-        <v>1.053221274164343</v>
+        <v>1.019239716883803</v>
       </c>
       <c r="K3">
-        <v>1.059239347070838</v>
+        <v>1.030083496944322</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>1.031025982772486</v>
       </c>
       <c r="M3">
-        <v>1.064770530281784</v>
+        <v>1.037376014959346</v>
       </c>
       <c r="N3">
-        <v>1.0212963561436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01050134480065</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.038152995341386</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.032339118845336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036534708427813</v>
+        <v>1.000955373579734</v>
       </c>
       <c r="D4">
-        <v>1.051451882950355</v>
+        <v>1.021168357604613</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>1.022882826005331</v>
       </c>
       <c r="F4">
-        <v>1.057389648820617</v>
+        <v>1.029148185193871</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065162652950612</v>
+        <v>1.046431238944145</v>
       </c>
       <c r="J4">
-        <v>1.055047875175628</v>
+        <v>1.020334672335905</v>
       </c>
       <c r="K4">
-        <v>1.060966589812545</v>
+        <v>1.031017839728367</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>1.032712702386142</v>
       </c>
       <c r="M4">
-        <v>1.066841466098132</v>
+        <v>1.038907098628934</v>
       </c>
       <c r="N4">
-        <v>1.021913804181287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.010863027811324</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.039364748346418</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.033000696208942</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03775101939278</v>
+        <v>1.001889326125267</v>
       </c>
       <c r="D5">
-        <v>1.052388054911305</v>
+        <v>1.021783326906384</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>1.023814254378846</v>
       </c>
       <c r="F5">
-        <v>1.058469066310868</v>
+        <v>1.030011836375143</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06561667276786</v>
+        <v>1.046602006028141</v>
       </c>
       <c r="J5">
-        <v>1.055805594938841</v>
+        <v>1.020790800411732</v>
       </c>
       <c r="K5">
-        <v>1.061682990704848</v>
+        <v>1.031407574592037</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>1.033415899130869</v>
       </c>
       <c r="M5">
-        <v>1.067701335334328</v>
+        <v>1.039545182699927</v>
       </c>
       <c r="N5">
-        <v>1.022169897907989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011013942243743</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.039869749725802</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.033283512496504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037954399549857</v>
+        <v>1.002047726861999</v>
       </c>
       <c r="D6">
-        <v>1.052544624093375</v>
+        <v>1.021889709057403</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>1.023971223784021</v>
       </c>
       <c r="F6">
-        <v>1.058649621417832</v>
+        <v>1.030157193247631</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.06569244261819</v>
+        <v>1.046632138410603</v>
       </c>
       <c r="J6">
-        <v>1.055932231373856</v>
+        <v>1.020869161082867</v>
       </c>
       <c r="K6">
-        <v>1.061802715329547</v>
+        <v>1.031476142140325</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>1.033534597511863</v>
       </c>
       <c r="M6">
-        <v>1.067845090425775</v>
+        <v>1.039652712902623</v>
       </c>
       <c r="N6">
-        <v>1.022212696008772</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011040143058684</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.039954852741007</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.033340820262892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036551017696743</v>
+        <v>1.000973647879089</v>
       </c>
       <c r="D7">
-        <v>1.051464433763106</v>
+        <v>1.021185921149093</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.022898074741829</v>
       </c>
       <c r="F7">
-        <v>1.057404118118758</v>
+        <v>1.029161770175694</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065168750673932</v>
+        <v>1.046438281832379</v>
       </c>
       <c r="J7">
-        <v>1.055058039460458</v>
+        <v>1.020346398810582</v>
       </c>
       <c r="K7">
-        <v>1.060976200249156</v>
+        <v>1.031032284063754</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.032724865702296</v>
       </c>
       <c r="M7">
-        <v>1.066852997513847</v>
+        <v>1.038917643172162</v>
       </c>
       <c r="N7">
-        <v>1.021917239660828</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.010867648166458</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.039373093658515</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.033031205514757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030559364182655</v>
+        <v>0.9963920299559191</v>
       </c>
       <c r="D8">
-        <v>1.046857539705991</v>
+        <v>1.018178747988672</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>1.01834306346184</v>
       </c>
       <c r="F8">
-        <v>1.052096362609399</v>
+        <v>1.024937795586334</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062911502367228</v>
+        <v>1.045575913455007</v>
       </c>
       <c r="J8">
-        <v>1.051316773647518</v>
+        <v>1.018105411945941</v>
       </c>
       <c r="K8">
-        <v>1.057438108667159</v>
+        <v>1.029117980562706</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>1.029280169086402</v>
       </c>
       <c r="M8">
-        <v>1.062614033790307</v>
+        <v>1.035790240256177</v>
       </c>
       <c r="N8">
-        <v>1.02065245089848</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010127700411805</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.036897955779146</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.031682218001608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019489810993551</v>
+        <v>0.9879628674538854</v>
       </c>
       <c r="D9">
-        <v>1.038368479569161</v>
+        <v>1.012641605431643</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>1.010043534002978</v>
       </c>
       <c r="F9">
-        <v>1.042331120543527</v>
+        <v>1.01724545196317</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058661713279037</v>
+        <v>1.043865143704951</v>
       </c>
       <c r="J9">
-        <v>1.044372620253128</v>
+        <v>1.01394796763693</v>
       </c>
       <c r="K9">
-        <v>1.050868282408999</v>
+        <v>1.025532857757755</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>1.022975736749057</v>
       </c>
       <c r="M9">
-        <v>1.054772808806268</v>
+        <v>1.030064795622137</v>
       </c>
       <c r="N9">
-        <v>1.018303886164759</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008754500996767</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.032366612925311</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.02914404283828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011727879015203</v>
+        <v>0.9821456651455086</v>
       </c>
       <c r="D10">
-        <v>1.032434312124949</v>
+        <v>1.008829332371434</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>1.004533165035508</v>
       </c>
       <c r="F10">
-        <v>1.035514486582912</v>
+        <v>1.012166596276932</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055630392906862</v>
+        <v>1.042616613414872</v>
       </c>
       <c r="J10">
-        <v>1.039483791478644</v>
+        <v>1.011086019089951</v>
       </c>
       <c r="K10">
-        <v>1.046241649271658</v>
+        <v>1.023040979642836</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>1.018821051328518</v>
       </c>
       <c r="M10">
-        <v>1.049270815403997</v>
+        <v>1.02631959963326</v>
       </c>
       <c r="N10">
-        <v>1.01665003464452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007811952599409</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.029454509009711</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.027399083203653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008266891416285</v>
+        <v>0.980011776272682</v>
       </c>
       <c r="D11">
-        <v>1.029793449416256</v>
+        <v>1.007451672033778</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>1.003870431138885</v>
       </c>
       <c r="F11">
-        <v>1.032483025983281</v>
+        <v>1.011766824330074</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054267134315997</v>
+        <v>1.042202996377261</v>
       </c>
       <c r="J11">
-        <v>1.037299756629087</v>
+        <v>1.010240396279404</v>
       </c>
       <c r="K11">
-        <v>1.044174558170238</v>
+        <v>1.022234415766276</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>1.018719724058781</v>
       </c>
       <c r="M11">
-        <v>1.046817301641079</v>
+        <v>1.026470195628285</v>
       </c>
       <c r="N11">
-        <v>1.015911154034785</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.00755063824263</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.03001420184757</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.026861999283543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.006965437780823</v>
+        <v>0.9793813418809663</v>
       </c>
       <c r="D12">
-        <v>1.028801234692516</v>
+        <v>1.007048323242087</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>1.004290918345702</v>
       </c>
       <c r="F12">
-        <v>1.031344362271115</v>
+        <v>1.012305966001191</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053752806790128</v>
+        <v>1.04210242726658</v>
       </c>
       <c r="J12">
-        <v>1.036477905497864</v>
+        <v>1.010084700745334</v>
       </c>
       <c r="K12">
-        <v>1.043396695848143</v>
+        <v>1.022041722943956</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>1.019336370279747</v>
       </c>
       <c r="M12">
-        <v>1.045894721907867</v>
+        <v>1.027201140652108</v>
       </c>
       <c r="N12">
-        <v>1.015633112870121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007512233047384</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.030921442966872</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.026725756394929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.007245337543153</v>
+        <v>0.9798701067214364</v>
       </c>
       <c r="D13">
-        <v>1.029014588098858</v>
+        <v>1.00737625162805</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>1.005576958104641</v>
       </c>
       <c r="F13">
-        <v>1.031589192682449</v>
+        <v>1.01361580464826</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053863497374594</v>
+        <v>1.042246074080699</v>
       </c>
       <c r="J13">
-        <v>1.036654683882685</v>
+        <v>1.010455688709295</v>
       </c>
       <c r="K13">
-        <v>1.043564012917841</v>
+        <v>1.022319921733437</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>1.020554409042315</v>
       </c>
       <c r="M13">
-        <v>1.046093136109316</v>
+        <v>1.028443540949473</v>
       </c>
       <c r="N13">
-        <v>1.015692918870614</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007645894799632</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.032182297399555</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.026919935945308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.008159642187468</v>
+        <v>0.9807170862978571</v>
       </c>
       <c r="D14">
-        <v>1.029711666166061</v>
+        <v>1.007936742392748</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>1.006855625179129</v>
       </c>
       <c r="F14">
-        <v>1.032389165566135</v>
+        <v>1.014870289857983</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.05422478411938</v>
+        <v>1.042456741613671</v>
       </c>
       <c r="J14">
-        <v>1.037232041581464</v>
+        <v>1.010951492997757</v>
       </c>
       <c r="K14">
-        <v>1.044110467785861</v>
+        <v>1.022727294212946</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>1.021666203072918</v>
       </c>
       <c r="M14">
-        <v>1.04674127344058</v>
+        <v>1.029533727681565</v>
       </c>
       <c r="N14">
-        <v>1.015888245284979</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007816709568209</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.033218305250101</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.027209407862987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008720843186547</v>
+        <v>0.9811691146819843</v>
       </c>
       <c r="D15">
-        <v>1.030139646607077</v>
+        <v>1.008235577542385</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>1.007376106157419</v>
       </c>
       <c r="F15">
-        <v>1.032880359451896</v>
+        <v>1.015367582462449</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054446320459046</v>
+        <v>1.042562827043</v>
       </c>
       <c r="J15">
-        <v>1.0375863495917</v>
+        <v>1.011190845785543</v>
       </c>
       <c r="K15">
-        <v>1.044445809707383</v>
+        <v>1.022932762285589</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782941</v>
+        <v>1.022089085517062</v>
       </c>
       <c r="M15">
-        <v>1.047139106273832</v>
+        <v>1.029935042240761</v>
       </c>
       <c r="N15">
-        <v>1.016008111603195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007897359040294</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.033573210403002</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.027360618313087</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011955393923868</v>
+        <v>0.9835285674261433</v>
       </c>
       <c r="D16">
-        <v>1.032608027394556</v>
+        <v>1.009782467520757</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>1.009459013017172</v>
       </c>
       <c r="F16">
-        <v>1.035713938351151</v>
+        <v>1.017288992437301</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055719771805747</v>
+        <v>1.043079671602172</v>
       </c>
       <c r="J16">
-        <v>1.039627280889086</v>
+        <v>1.012332357731074</v>
       </c>
       <c r="K16">
-        <v>1.046377452574757</v>
+        <v>1.023941148960818</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175717</v>
+        <v>1.023623374428935</v>
       </c>
       <c r="M16">
-        <v>1.049432102560221</v>
+        <v>1.031317168634957</v>
       </c>
       <c r="N16">
-        <v>1.016698578144384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.00827156297584</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.034626744700322</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.028076798995092</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01395697509531</v>
+        <v>0.9848980283910265</v>
       </c>
       <c r="D17">
-        <v>1.034136894546876</v>
+        <v>1.010677983933268</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>1.010390698023219</v>
       </c>
       <c r="F17">
-        <v>1.037469552371402</v>
+        <v>1.018103928412623</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056504774807325</v>
+        <v>1.043363076501219</v>
       </c>
       <c r="J17">
-        <v>1.040889174940273</v>
+        <v>1.012949184003713</v>
       </c>
       <c r="K17">
-        <v>1.047571732219449</v>
+        <v>1.02450134438675</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068056</v>
+        <v>1.024218960897541</v>
       </c>
       <c r="M17">
-        <v>1.050851022120297</v>
+        <v>1.031801805422685</v>
       </c>
       <c r="N17">
-        <v>1.017125482143025</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.00846938990165</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.034880167575415</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.028475501387247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01511487453194</v>
+        <v>0.9855389600275962</v>
       </c>
       <c r="D18">
-        <v>1.035021814837034</v>
+        <v>1.011088999219075</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>1.01034004733067</v>
       </c>
       <c r="F18">
-        <v>1.038485918008795</v>
+        <v>1.017956057745657</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056957788345858</v>
+        <v>1.04347096280989</v>
       </c>
       <c r="J18">
-        <v>1.041618775172163</v>
+        <v>1.013159644156967</v>
       </c>
       <c r="K18">
-        <v>1.048262220521411</v>
+        <v>1.024719028503739</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>1.023982653516297</v>
       </c>
       <c r="M18">
-        <v>1.051671831650966</v>
+        <v>1.031471880839997</v>
       </c>
       <c r="N18">
-        <v>1.017372304884122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.00852887531582</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.034380335975519</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.028617655651385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015508087005474</v>
+        <v>0.9855248952196031</v>
       </c>
       <c r="D19">
-        <v>1.035322405748594</v>
+        <v>1.011072105423566</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>1.009386734108811</v>
       </c>
       <c r="F19">
-        <v>1.038831193211474</v>
+        <v>1.016920920537786</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057111438891753</v>
+        <v>1.043428075514877</v>
       </c>
       <c r="J19">
-        <v>1.041866472531375</v>
+        <v>1.013008234442224</v>
       </c>
       <c r="K19">
-        <v>1.048496635976642</v>
+        <v>1.024638884769805</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>1.022981698728322</v>
       </c>
       <c r="M19">
-        <v>1.05195056542609</v>
+        <v>1.030390819435735</v>
       </c>
       <c r="N19">
-        <v>1.017456099719232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008466887106163</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.033197765860784</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.028567452014822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013743222240959</v>
+        <v>0.9836670432584772</v>
       </c>
       <c r="D20">
-        <v>1.033973573228284</v>
+        <v>1.009838051912041</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>1.005973420168808</v>
       </c>
       <c r="F20">
-        <v>1.037281987898772</v>
+        <v>1.013493080908071</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056421057041107</v>
+        <v>1.042956413866635</v>
       </c>
       <c r="J20">
-        <v>1.040754455510005</v>
+        <v>1.011842423104545</v>
       </c>
       <c r="K20">
-        <v>1.047444233146606</v>
+        <v>1.023710089123623</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>1.01991204115535</v>
       </c>
       <c r="M20">
-        <v>1.050699494996725</v>
+        <v>1.027302748786435</v>
       </c>
       <c r="N20">
-        <v>1.017079906384518</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008063219627375</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.030221911753922</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.027914705377733</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.007890848107605</v>
+        <v>0.9792095894951719</v>
       </c>
       <c r="D21">
-        <v>1.029506710186818</v>
+        <v>1.006913730910467</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>1.001514703526484</v>
       </c>
       <c r="F21">
-        <v>1.032153948014038</v>
+        <v>1.009342252972699</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054118616553893</v>
+        <v>1.041961131677553</v>
       </c>
       <c r="J21">
-        <v>1.037062321169043</v>
+        <v>1.009603021488629</v>
       </c>
       <c r="K21">
-        <v>1.043949831963237</v>
+        <v>1.021765293787099</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>1.016467436096087</v>
       </c>
       <c r="M21">
-        <v>1.046550727931719</v>
+        <v>1.024148769036787</v>
       </c>
       <c r="N21">
-        <v>1.015830826996462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.00732247956029</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.027684405156884</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.026542896794737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.004118826438411</v>
+        <v>0.9763700997037584</v>
       </c>
       <c r="D22">
-        <v>1.026632639911528</v>
+        <v>1.005049478102185</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9987698576339126</v>
       </c>
       <c r="F22">
-        <v>1.028856231872032</v>
+        <v>1.006801756518223</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052624783460142</v>
+        <v>1.041312933256055</v>
       </c>
       <c r="J22">
-        <v>1.034679298421671</v>
+        <v>1.008183645769525</v>
       </c>
       <c r="K22">
-        <v>1.041694339206984</v>
+        <v>1.02052156316623</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>1.014365723337301</v>
       </c>
       <c r="M22">
-        <v>1.043876925912007</v>
+        <v>1.022239662878782</v>
       </c>
       <c r="N22">
-        <v>1.015024628823636</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006853181827181</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.026173446466771</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.025649848502708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.006127509901483</v>
+        <v>0.9778770893319216</v>
       </c>
       <c r="D23">
-        <v>1.028162653927861</v>
+        <v>1.006034453644431</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>1.000226828517351</v>
       </c>
       <c r="F23">
-        <v>1.030611612346104</v>
+        <v>1.00815117086281</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053421191345657</v>
+        <v>1.041655784189434</v>
       </c>
       <c r="J23">
-        <v>1.035948608210129</v>
+        <v>1.008935401769294</v>
       </c>
       <c r="K23">
-        <v>1.042895725365319</v>
+        <v>1.021177243277314</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>1.015481085887039</v>
       </c>
       <c r="M23">
-        <v>1.045300743968996</v>
+        <v>1.023253751060313</v>
       </c>
       <c r="N23">
-        <v>1.015454046271637</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007100947244755</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.026976045177881</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.026103707372533</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013839837524776</v>
+        <v>0.9836909582817839</v>
       </c>
       <c r="D24">
-        <v>1.034047392205062</v>
+        <v>1.009845448161615</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>1.005869335388278</v>
       </c>
       <c r="F24">
-        <v>1.037366763816992</v>
+        <v>1.013376870134481</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056458900506879</v>
+        <v>1.042951875008476</v>
       </c>
       <c r="J24">
-        <v>1.040815349289198</v>
+        <v>1.011831594686546</v>
       </c>
       <c r="K24">
-        <v>1.047501863351191</v>
+        <v>1.023701844906082</v>
       </c>
       <c r="L24">
-        <v>0.953371659644254</v>
+        <v>1.019794156998326</v>
       </c>
       <c r="M24">
-        <v>1.050767984624063</v>
+        <v>1.02717307587054</v>
       </c>
       <c r="N24">
-        <v>1.017100506842171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008056963396405</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.030077980660093</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.02788117539887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022415957778567</v>
+        <v>0.9901931359058856</v>
       </c>
       <c r="D25">
-        <v>1.040609585891314</v>
+        <v>1.014113831298967</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>1.012227071195885</v>
       </c>
       <c r="F25">
-        <v>1.044907425513419</v>
+        <v>1.019267565180861</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059794138191277</v>
+        <v>1.044336350829736</v>
       </c>
       <c r="J25">
-        <v>1.046211788393172</v>
+        <v>1.015055108287106</v>
       </c>
       <c r="K25">
-        <v>1.052608579863593</v>
+        <v>1.026496929020511</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>1.024638497150498</v>
       </c>
       <c r="M25">
-        <v>1.056846431439954</v>
+        <v>1.031573962778247</v>
       </c>
       <c r="N25">
-        <v>1.018925996439124</v>
+        <v>1.009121356358927</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.033561030204573</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.029854591091069</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9951826075308776</v>
+        <v>0.995632709576257</v>
       </c>
       <c r="D2">
-        <v>1.017378177097416</v>
+        <v>1.017565965390802</v>
       </c>
       <c r="E2">
-        <v>1.017149108140917</v>
+        <v>1.017260227291863</v>
       </c>
       <c r="F2">
-        <v>1.023831691247882</v>
+        <v>1.023982129354863</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04533570645455</v>
+        <v>1.045431024533196</v>
       </c>
       <c r="J2">
-        <v>1.017508366938046</v>
+        <v>1.017944834845735</v>
       </c>
       <c r="K2">
-        <v>1.028600601020593</v>
+        <v>1.028785884759699</v>
       </c>
       <c r="L2">
-        <v>1.028374588755743</v>
+        <v>1.028484224919045</v>
       </c>
       <c r="M2">
-        <v>1.034968704232381</v>
+        <v>1.035117167417204</v>
       </c>
       <c r="N2">
-        <v>1.009929601854914</v>
+        <v>1.012089952967736</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.036247761530686</v>
+        <v>1.036365260876155</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.031293253320808</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.031433125920902</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019841119261047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9987139308204559</v>
+        <v>0.9990345230126796</v>
       </c>
       <c r="D3">
-        <v>1.019696584262736</v>
+        <v>1.019716158458547</v>
       </c>
       <c r="E3">
-        <v>1.020650685147236</v>
+        <v>1.020726689490618</v>
       </c>
       <c r="F3">
-        <v>1.027078267922061</v>
+        <v>1.027185023487899</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046015209464048</v>
+        <v>1.046025155497297</v>
       </c>
       <c r="J3">
-        <v>1.019239716883803</v>
+        <v>1.019551542552558</v>
       </c>
       <c r="K3">
-        <v>1.030083496944322</v>
+        <v>1.030102832575895</v>
       </c>
       <c r="L3">
-        <v>1.031025982772486</v>
+        <v>1.031101063012605</v>
       </c>
       <c r="M3">
-        <v>1.037376014959346</v>
+        <v>1.037481492653123</v>
       </c>
       <c r="N3">
-        <v>1.01050134480065</v>
+        <v>1.012512400501937</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.038152995341386</v>
+        <v>1.038236474132044</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.032339118845336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.032361371749494</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020088966594528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000955373579734</v>
+        <v>1.00119473370144</v>
       </c>
       <c r="D4">
-        <v>1.021168357604613</v>
+        <v>1.021081964868787</v>
       </c>
       <c r="E4">
-        <v>1.022882826005331</v>
+        <v>1.022936991760622</v>
       </c>
       <c r="F4">
-        <v>1.029148185193871</v>
+        <v>1.029227606246172</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046431238944145</v>
+        <v>1.046387310554931</v>
       </c>
       <c r="J4">
-        <v>1.020334672335905</v>
+        <v>1.020567927365075</v>
       </c>
       <c r="K4">
-        <v>1.031017839728367</v>
+        <v>1.030932437084219</v>
       </c>
       <c r="L4">
-        <v>1.032712702386142</v>
+        <v>1.032766250052082</v>
       </c>
       <c r="M4">
-        <v>1.038907098628934</v>
+        <v>1.038985626969698</v>
       </c>
       <c r="N4">
-        <v>1.010863027811324</v>
+        <v>1.012779726337433</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.039364748346418</v>
+        <v>1.039426898358359</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.033000696208942</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.032948969884811</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020242209787708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001889326125267</v>
+        <v>1.002095141515404</v>
       </c>
       <c r="D5">
-        <v>1.021783326906384</v>
+        <v>1.021653090557772</v>
       </c>
       <c r="E5">
-        <v>1.023814254378846</v>
+        <v>1.023859439609285</v>
       </c>
       <c r="F5">
-        <v>1.030011836375143</v>
+        <v>1.030079988014265</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046602006028141</v>
+        <v>1.04653576478003</v>
       </c>
       <c r="J5">
-        <v>1.020790800411732</v>
+        <v>1.020991522208718</v>
       </c>
       <c r="K5">
-        <v>1.031407574592037</v>
+        <v>1.031278791464372</v>
       </c>
       <c r="L5">
-        <v>1.033415899130869</v>
+        <v>1.033460582732537</v>
       </c>
       <c r="M5">
-        <v>1.039545182699927</v>
+        <v>1.039612588905981</v>
       </c>
       <c r="N5">
-        <v>1.011013942243743</v>
+        <v>1.012891339333948</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.039869749725802</v>
+        <v>1.039923097263159</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.033283512496504</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.033201821845622</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020305727244892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002047726861999</v>
+        <v>1.002247964227589</v>
       </c>
       <c r="D6">
-        <v>1.021889709057403</v>
+        <v>1.02175219614815</v>
       </c>
       <c r="E6">
-        <v>1.023971223784021</v>
+        <v>1.024014911118633</v>
       </c>
       <c r="F6">
-        <v>1.030157193247631</v>
+        <v>1.0302234764078</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046632138410603</v>
+        <v>1.046562192647483</v>
       </c>
       <c r="J6">
-        <v>1.020869161082867</v>
+        <v>1.021064468218839</v>
       </c>
       <c r="K6">
-        <v>1.031476142140325</v>
+        <v>1.031340156690451</v>
       </c>
       <c r="L6">
-        <v>1.033534597511863</v>
+        <v>1.033577802105871</v>
       </c>
       <c r="M6">
-        <v>1.039652712902623</v>
+        <v>1.039718274416389</v>
       </c>
       <c r="N6">
-        <v>1.011040143058684</v>
+        <v>1.012910778698423</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.039954852741007</v>
+        <v>1.040006740320792</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.033340820262892</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.033254904717025</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020317238331574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000973647879089</v>
+        <v>1.00121995442906</v>
       </c>
       <c r="D7">
-        <v>1.021185921149093</v>
+        <v>1.021103917040703</v>
       </c>
       <c r="E7">
-        <v>1.022898074741829</v>
+        <v>1.022954783159505</v>
       </c>
       <c r="F7">
-        <v>1.029161770175694</v>
+        <v>1.029243587072919</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046438281832379</v>
+        <v>1.046396584764423</v>
       </c>
       <c r="J7">
-        <v>1.020346398810582</v>
+        <v>1.020586425761658</v>
       </c>
       <c r="K7">
-        <v>1.031032284063754</v>
+        <v>1.030951219392819</v>
       </c>
       <c r="L7">
-        <v>1.032724865702296</v>
+        <v>1.03278092725807</v>
       </c>
       <c r="M7">
-        <v>1.038917643172162</v>
+        <v>1.038998540767213</v>
       </c>
       <c r="N7">
-        <v>1.010867648166458</v>
+        <v>1.012811029255948</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.039373093658515</v>
+        <v>1.03943711877842</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.033031205514757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.032984543234</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020246836987667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9963920299559191</v>
+        <v>0.9968203429964392</v>
       </c>
       <c r="D8">
-        <v>1.018178747988672</v>
+        <v>1.018324088470938</v>
       </c>
       <c r="E8">
-        <v>1.01834306346184</v>
+        <v>1.018450509431372</v>
       </c>
       <c r="F8">
-        <v>1.024937795586334</v>
+        <v>1.025081015747584</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045575913455007</v>
+        <v>1.045649712002772</v>
       </c>
       <c r="J8">
-        <v>1.018105411945941</v>
+        <v>1.018521184125217</v>
       </c>
       <c r="K8">
-        <v>1.029117980562706</v>
+        <v>1.029261439669687</v>
       </c>
       <c r="L8">
-        <v>1.029280169086402</v>
+        <v>1.02938622470702</v>
       </c>
       <c r="M8">
-        <v>1.035790240256177</v>
+        <v>1.035931636901273</v>
       </c>
       <c r="N8">
-        <v>1.010127700411805</v>
+        <v>1.012320756218093</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.036897955779146</v>
+        <v>1.037009862297488</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.031682218001608</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.031794779894734</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019933184377453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9879628674538854</v>
+        <v>0.9887092243610545</v>
       </c>
       <c r="D9">
-        <v>1.012641605431643</v>
+        <v>1.013194905530688</v>
       </c>
       <c r="E9">
-        <v>1.010043534002978</v>
+        <v>1.010239136810913</v>
       </c>
       <c r="F9">
-        <v>1.01724545196317</v>
+        <v>1.017496396524943</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043865143704951</v>
+        <v>1.044145419234064</v>
       </c>
       <c r="J9">
-        <v>1.01394796763693</v>
+        <v>1.014667087390214</v>
       </c>
       <c r="K9">
-        <v>1.025532857757755</v>
+        <v>1.026077471522824</v>
       </c>
       <c r="L9">
-        <v>1.022975736749057</v>
+        <v>1.023168247106946</v>
       </c>
       <c r="M9">
-        <v>1.030064795622137</v>
+        <v>1.030311844510897</v>
       </c>
       <c r="N9">
-        <v>1.008754500996767</v>
+        <v>1.011316692495302</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.032366612925311</v>
+        <v>1.032562137768698</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.02914404283828</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.029539980186882</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019316976145926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9821456651455086</v>
+        <v>0.9831494553391057</v>
       </c>
       <c r="D10">
-        <v>1.008829332371434</v>
+        <v>1.009689483901</v>
       </c>
       <c r="E10">
-        <v>1.004533165035508</v>
+        <v>1.004804854469419</v>
       </c>
       <c r="F10">
-        <v>1.012166596276932</v>
+        <v>1.012505150710181</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042616613414872</v>
+        <v>1.04305165527147</v>
       </c>
       <c r="J10">
-        <v>1.011086019089951</v>
+        <v>1.012047954463753</v>
       </c>
       <c r="K10">
-        <v>1.023040979642836</v>
+        <v>1.02388596812827</v>
       </c>
       <c r="L10">
-        <v>1.018821051328518</v>
+        <v>1.019087894340597</v>
       </c>
       <c r="M10">
-        <v>1.02631959963326</v>
+        <v>1.026652232810082</v>
       </c>
       <c r="N10">
-        <v>1.007811952599409</v>
+        <v>1.010746870251003</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.029454509009711</v>
+        <v>1.029717753161995</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.027399083203653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.028009089594571</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018881653808087</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.980011776272682</v>
+        <v>0.9811588639829417</v>
       </c>
       <c r="D11">
-        <v>1.007451672033778</v>
+        <v>1.008453271140702</v>
       </c>
       <c r="E11">
-        <v>1.003870431138885</v>
+        <v>1.004184963777519</v>
       </c>
       <c r="F11">
-        <v>1.011766824330074</v>
+        <v>1.012152038633165</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042202996377261</v>
+        <v>1.042709253959091</v>
       </c>
       <c r="J11">
-        <v>1.010240396279404</v>
+        <v>1.011337019097211</v>
       </c>
       <c r="K11">
-        <v>1.022234415766276</v>
+        <v>1.023217512675096</v>
       </c>
       <c r="L11">
-        <v>1.018719724058781</v>
+        <v>1.019028387014049</v>
       </c>
       <c r="M11">
-        <v>1.026470195628285</v>
+        <v>1.026848367179769</v>
       </c>
       <c r="N11">
-        <v>1.00755063824263</v>
+        <v>1.010801077140077</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.03001420184757</v>
+        <v>1.03031333119982</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.026861999283543</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.027572866969233</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018763166948608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9793813418809663</v>
+        <v>0.980578067391575</v>
       </c>
       <c r="D12">
-        <v>1.007048323242087</v>
+        <v>1.008094644835947</v>
       </c>
       <c r="E12">
-        <v>1.004290918345702</v>
+        <v>1.00461759282419</v>
       </c>
       <c r="F12">
-        <v>1.012305966001191</v>
+        <v>1.012706089607043</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04210242726658</v>
+        <v>1.042631167517239</v>
       </c>
       <c r="J12">
-        <v>1.010084700745334</v>
+        <v>1.011227765833009</v>
       </c>
       <c r="K12">
-        <v>1.022041722943956</v>
+        <v>1.023068390173951</v>
       </c>
       <c r="L12">
-        <v>1.019336370279747</v>
+        <v>1.019656858537728</v>
       </c>
       <c r="M12">
-        <v>1.027201140652108</v>
+        <v>1.027593843471934</v>
       </c>
       <c r="N12">
-        <v>1.007512233047384</v>
+        <v>1.010883147055953</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.030921442966872</v>
+        <v>1.031231959502572</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.026725756394929</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.027467432794174</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018743492277005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9798701067214364</v>
+        <v>0.9810373811892674</v>
       </c>
       <c r="D13">
-        <v>1.00737625162805</v>
+        <v>1.008389249227594</v>
       </c>
       <c r="E13">
-        <v>1.005576958104641</v>
+        <v>1.005890467319785</v>
       </c>
       <c r="F13">
-        <v>1.01361580464826</v>
+        <v>1.01400459835836</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042246074080699</v>
+        <v>1.04275800535339</v>
       </c>
       <c r="J13">
-        <v>1.010455688709295</v>
+        <v>1.011570888004085</v>
       </c>
       <c r="K13">
-        <v>1.022319921733437</v>
+        <v>1.02331397003802</v>
       </c>
       <c r="L13">
-        <v>1.020554409042315</v>
+        <v>1.020862020923728</v>
       </c>
       <c r="M13">
-        <v>1.028443540949473</v>
+        <v>1.028825172220369</v>
       </c>
       <c r="N13">
-        <v>1.007645894799632</v>
+        <v>1.010958741944468</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.032182297399555</v>
+        <v>1.032483982773901</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.026919935945308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.0276383033803</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018801274392078</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9807170862978571</v>
+        <v>0.981828383071537</v>
       </c>
       <c r="D14">
-        <v>1.007936742392748</v>
+        <v>1.008891543639435</v>
       </c>
       <c r="E14">
-        <v>1.006855625179129</v>
+        <v>1.007149686682365</v>
       </c>
       <c r="F14">
-        <v>1.014870289857983</v>
+        <v>1.015239716296953</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042456741613671</v>
+        <v>1.042939346775906</v>
       </c>
       <c r="J14">
-        <v>1.010951492997757</v>
+        <v>1.012013927247674</v>
       </c>
       <c r="K14">
-        <v>1.022727294212946</v>
+        <v>1.023664455715488</v>
       </c>
       <c r="L14">
-        <v>1.021666203072918</v>
+        <v>1.021954811977505</v>
       </c>
       <c r="M14">
-        <v>1.029533727681565</v>
+        <v>1.029896444734787</v>
       </c>
       <c r="N14">
-        <v>1.007816709568209</v>
+        <v>1.011009348164818</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.033218305250101</v>
+        <v>1.033504999707426</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.027209407862987</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027887686141606</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018876729112557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9811691146819843</v>
+        <v>0.9822501995677048</v>
       </c>
       <c r="D15">
-        <v>1.008235577542385</v>
+        <v>1.009159625831328</v>
       </c>
       <c r="E15">
-        <v>1.007376106157419</v>
+        <v>1.007660608372607</v>
       </c>
       <c r="F15">
-        <v>1.015367582462449</v>
+        <v>1.015726871852045</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042562827043</v>
+        <v>1.043029937447942</v>
       </c>
       <c r="J15">
-        <v>1.011190845785543</v>
+        <v>1.0122248134847</v>
       </c>
       <c r="K15">
-        <v>1.022932762285589</v>
+        <v>1.023839868300753</v>
       </c>
       <c r="L15">
-        <v>1.022089085517062</v>
+        <v>1.022368355511849</v>
       </c>
       <c r="M15">
-        <v>1.029935042240761</v>
+        <v>1.030287859111201</v>
       </c>
       <c r="N15">
-        <v>1.007897359040294</v>
+        <v>1.01102436835823</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.033573210403002</v>
+        <v>1.0338520723282</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.027360618313087</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.028018212751725</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018913107332864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9835285674261433</v>
+        <v>0.9844576547730519</v>
       </c>
       <c r="D16">
-        <v>1.009782467520757</v>
+        <v>1.010551226326053</v>
       </c>
       <c r="E16">
-        <v>1.009459013017172</v>
+        <v>1.009698709211112</v>
       </c>
       <c r="F16">
-        <v>1.017288992437301</v>
+        <v>1.017598106926874</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043079671602172</v>
+        <v>1.043468519865765</v>
       </c>
       <c r="J16">
-        <v>1.012332357731074</v>
+        <v>1.013222979758114</v>
       </c>
       <c r="K16">
-        <v>1.023941148960818</v>
+        <v>1.024696427001858</v>
       </c>
       <c r="L16">
-        <v>1.023623374428935</v>
+        <v>1.02385886102325</v>
       </c>
       <c r="M16">
-        <v>1.031317168634957</v>
+        <v>1.031620962358194</v>
       </c>
       <c r="N16">
-        <v>1.00827156297584</v>
+        <v>1.011078656030962</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.034626744700322</v>
+        <v>1.034866866325231</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.028076798995092</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.028627339013621</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019083992471688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9848980283910265</v>
+        <v>0.9857481724481514</v>
       </c>
       <c r="D17">
-        <v>1.010677983933268</v>
+        <v>1.011363477637537</v>
       </c>
       <c r="E17">
-        <v>1.010390698023219</v>
+        <v>1.010608008931767</v>
       </c>
       <c r="F17">
-        <v>1.018103928412623</v>
+        <v>1.018387092174195</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043363076501219</v>
+        <v>1.043709941204239</v>
       </c>
       <c r="J17">
-        <v>1.012949184003713</v>
+        <v>1.013765262913064</v>
       </c>
       <c r="K17">
-        <v>1.02450134438675</v>
+        <v>1.025175154940836</v>
       </c>
       <c r="L17">
-        <v>1.024218960897541</v>
+        <v>1.02443256314942</v>
       </c>
       <c r="M17">
-        <v>1.031801805422685</v>
+        <v>1.032080230969271</v>
       </c>
       <c r="N17">
-        <v>1.00846938990165</v>
+        <v>1.01112292845296</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.034880167575415</v>
+        <v>1.035100260029392</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028475501387247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028968684982373</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019176016768562</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9855389600275962</v>
+        <v>0.9863553672393854</v>
       </c>
       <c r="D18">
-        <v>1.011088999219075</v>
+        <v>1.01173882154191</v>
       </c>
       <c r="E18">
-        <v>1.01034004733067</v>
+        <v>1.010548490257458</v>
       </c>
       <c r="F18">
-        <v>1.017956057745657</v>
+        <v>1.018228425127037</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04347096280989</v>
+        <v>1.043799850116595</v>
       </c>
       <c r="J18">
-        <v>1.013159644156967</v>
+        <v>1.013943950975356</v>
       </c>
       <c r="K18">
-        <v>1.024719028503739</v>
+        <v>1.025357958021061</v>
       </c>
       <c r="L18">
-        <v>1.023982653516297</v>
+        <v>1.024187593716121</v>
       </c>
       <c r="M18">
-        <v>1.031471880839997</v>
+        <v>1.031739759334321</v>
       </c>
       <c r="N18">
-        <v>1.00852887531582</v>
+        <v>1.011121505286955</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.034380335975519</v>
+        <v>1.034592135650123</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.028617655651385</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.029085043116705</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.01920516453221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9855248952196031</v>
+        <v>0.9863433075721308</v>
       </c>
       <c r="D19">
-        <v>1.011072105423566</v>
+        <v>1.011726249970066</v>
       </c>
       <c r="E19">
-        <v>1.009386734108811</v>
+        <v>1.009597165945068</v>
       </c>
       <c r="F19">
-        <v>1.016920920537786</v>
+        <v>1.017194713600744</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043428075514877</v>
+        <v>1.043759173356434</v>
       </c>
       <c r="J19">
-        <v>1.013008234442224</v>
+        <v>1.013794655297991</v>
       </c>
       <c r="K19">
-        <v>1.024638884769805</v>
+        <v>1.025282122328603</v>
       </c>
       <c r="L19">
-        <v>1.022981698728322</v>
+        <v>1.023188604785397</v>
       </c>
       <c r="M19">
-        <v>1.030390819435735</v>
+        <v>1.030660112465993</v>
       </c>
       <c r="N19">
-        <v>1.008466887106163</v>
+        <v>1.01106177221265</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.033197765860784</v>
+        <v>1.033410754433097</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.028567452014822</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.029038508642399</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019179714491237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9836670432584772</v>
+        <v>0.9845837405902339</v>
       </c>
       <c r="D20">
-        <v>1.009838051912041</v>
+        <v>1.01060541130079</v>
       </c>
       <c r="E20">
-        <v>1.005973420168808</v>
+        <v>1.006217002661494</v>
       </c>
       <c r="F20">
-        <v>1.013493080908071</v>
+        <v>1.013801872079885</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042956413866635</v>
+        <v>1.043344675596175</v>
       </c>
       <c r="J20">
-        <v>1.011842423104545</v>
+        <v>1.012722146214838</v>
       </c>
       <c r="K20">
-        <v>1.023710089123623</v>
+        <v>1.024464305966096</v>
       </c>
       <c r="L20">
-        <v>1.01991204115535</v>
+        <v>1.020151407424328</v>
       </c>
       <c r="M20">
-        <v>1.027302748786435</v>
+        <v>1.027606297347012</v>
       </c>
       <c r="N20">
-        <v>1.008063219627375</v>
+        <v>1.010827116523494</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.030221911753922</v>
+        <v>1.030462141381477</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.027914705377733</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.028464621307884</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.01899810768059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9792095894951719</v>
+        <v>0.9804226885172693</v>
       </c>
       <c r="D21">
-        <v>1.006913730910467</v>
+        <v>1.007982502195486</v>
       </c>
       <c r="E21">
-        <v>1.001514703526484</v>
+        <v>1.001859037890801</v>
       </c>
       <c r="F21">
-        <v>1.009342252972699</v>
+        <v>1.009752818227065</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041961131677553</v>
+        <v>1.042501295457153</v>
       </c>
       <c r="J21">
-        <v>1.009603021488629</v>
+        <v>1.010762362134783</v>
       </c>
       <c r="K21">
-        <v>1.021765293787099</v>
+        <v>1.022814205487206</v>
       </c>
       <c r="L21">
-        <v>1.016467436096087</v>
+        <v>1.016805275616442</v>
       </c>
       <c r="M21">
-        <v>1.024148769036787</v>
+        <v>1.024551746600255</v>
       </c>
       <c r="N21">
-        <v>1.00732247956029</v>
+        <v>1.010727340447429</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.027684405156884</v>
+        <v>1.02800334061134</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.026542896794737</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.02730151048986</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018665438627865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9763700997037584</v>
+        <v>0.977770333237061</v>
       </c>
       <c r="D22">
-        <v>1.005049478102185</v>
+        <v>1.006308845506874</v>
       </c>
       <c r="E22">
-        <v>0.9987698576339126</v>
+        <v>0.9991800003834909</v>
       </c>
       <c r="F22">
-        <v>1.006801756518223</v>
+        <v>1.007276643294479</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041312933256055</v>
+        <v>1.041948984507831</v>
       </c>
       <c r="J22">
-        <v>1.008183645769525</v>
+        <v>1.009518193568682</v>
       </c>
       <c r="K22">
-        <v>1.02052156316623</v>
+        <v>1.021756350461295</v>
       </c>
       <c r="L22">
-        <v>1.014365723337301</v>
+        <v>1.014767719147332</v>
       </c>
       <c r="M22">
-        <v>1.022239662878782</v>
+        <v>1.02270531370134</v>
       </c>
       <c r="N22">
-        <v>1.006853181827181</v>
+        <v>1.010656718932311</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.026173446466771</v>
+        <v>1.026541985293337</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.025649848502708</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.026538594082727</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018449468247583</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9778770893319216</v>
+        <v>0.9791664252309111</v>
       </c>
       <c r="D23">
-        <v>1.006034453644431</v>
+        <v>1.007184780278929</v>
       </c>
       <c r="E23">
-        <v>1.000226828517351</v>
+        <v>1.000596863782358</v>
       </c>
       <c r="F23">
-        <v>1.00815117086281</v>
+        <v>1.008587954962264</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041655784189434</v>
+        <v>1.04223697649326</v>
       </c>
       <c r="J23">
-        <v>1.008935401769294</v>
+        <v>1.010166038659661</v>
       </c>
       <c r="K23">
-        <v>1.021177243277314</v>
+        <v>1.022305690741007</v>
       </c>
       <c r="L23">
-        <v>1.015481085887039</v>
+        <v>1.015843968369514</v>
       </c>
       <c r="M23">
-        <v>1.023253751060313</v>
+        <v>1.023682265409249</v>
       </c>
       <c r="N23">
-        <v>1.007100947244755</v>
+        <v>1.010651115377937</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.026976045177881</v>
+        <v>1.027315191993689</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.026103707372533</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.026916322137782</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018561236285752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9836909582817839</v>
+        <v>0.9846059647371316</v>
       </c>
       <c r="D24">
-        <v>1.009845448161615</v>
+        <v>1.010611153801031</v>
       </c>
       <c r="E24">
-        <v>1.005869335388278</v>
+        <v>1.006112746708272</v>
       </c>
       <c r="F24">
-        <v>1.013376870134481</v>
+        <v>1.01368523994849</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042951875008476</v>
+        <v>1.043339306661732</v>
       </c>
       <c r="J24">
-        <v>1.011831594686546</v>
+        <v>1.012709749636676</v>
       </c>
       <c r="K24">
-        <v>1.023701844906082</v>
+        <v>1.02445445340244</v>
       </c>
       <c r="L24">
-        <v>1.019794156998326</v>
+        <v>1.020033359353137</v>
       </c>
       <c r="M24">
-        <v>1.02717307587054</v>
+        <v>1.02747621540029</v>
       </c>
       <c r="N24">
-        <v>1.008056963396405</v>
+        <v>1.010817870831228</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.030077980660093</v>
+        <v>1.030317898767462</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.02788117539887</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.02842728714917</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018993958009791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9901931359058856</v>
+        <v>0.9908458689363707</v>
       </c>
       <c r="D25">
-        <v>1.014113831298967</v>
+        <v>1.014553169257474</v>
       </c>
       <c r="E25">
-        <v>1.012227071195885</v>
+        <v>1.012395492800476</v>
       </c>
       <c r="F25">
-        <v>1.019267565180861</v>
+        <v>1.019486680696474</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044336350829736</v>
+        <v>1.044559033963587</v>
       </c>
       <c r="J25">
-        <v>1.015055108287106</v>
+        <v>1.015685282816261</v>
       </c>
       <c r="K25">
-        <v>1.026496929020511</v>
+        <v>1.026929689904125</v>
       </c>
       <c r="L25">
-        <v>1.024638497150498</v>
+        <v>1.024804384571797</v>
       </c>
       <c r="M25">
-        <v>1.031573962778247</v>
+        <v>1.031789839156473</v>
       </c>
       <c r="N25">
-        <v>1.009121356358927</v>
+        <v>1.011552489685223</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.033561030204573</v>
+        <v>1.033731883528874</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.029854591091069</v>
+        <v>1.030174237017678</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019485015572124</v>
       </c>
     </row>
   </sheetData>
